--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
@@ -4627,28 +4627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>340.4384956003429</v>
+        <v>376.9400460953568</v>
       </c>
       <c r="AB2" t="n">
-        <v>465.8029687668221</v>
+        <v>515.7460004888563</v>
       </c>
       <c r="AC2" t="n">
-        <v>421.3473871862885</v>
+        <v>466.523926056257</v>
       </c>
       <c r="AD2" t="n">
-        <v>340438.4956003429</v>
+        <v>376940.0460953568</v>
       </c>
       <c r="AE2" t="n">
-        <v>465802.9687668221</v>
+        <v>515746.0004888563</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.417153243959769e-06</v>
+        <v>4.472366346922649e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.287434895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>421347.3871862885</v>
+        <v>466523.926056257</v>
       </c>
     </row>
     <row r="3">
@@ -4733,28 +4733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>182.6780454707961</v>
+        <v>206.9839953521316</v>
       </c>
       <c r="AB3" t="n">
-        <v>249.9481609996065</v>
+        <v>283.2046339300623</v>
       </c>
       <c r="AC3" t="n">
-        <v>226.0934593183239</v>
+        <v>256.1759811480605</v>
       </c>
       <c r="AD3" t="n">
-        <v>182678.0454707961</v>
+        <v>206983.9953521316</v>
       </c>
       <c r="AE3" t="n">
-        <v>249948.1609996065</v>
+        <v>283204.6339300623</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.704577481317768e-06</v>
+        <v>6.854438252276906e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.1015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>226093.4593183239</v>
+        <v>256175.9811480606</v>
       </c>
     </row>
     <row r="4">
@@ -4839,28 +4839,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>147.6531680990051</v>
+        <v>172.044369326361</v>
       </c>
       <c r="AB4" t="n">
-        <v>202.0255785910102</v>
+        <v>235.3986961741153</v>
       </c>
       <c r="AC4" t="n">
-        <v>182.744540915022</v>
+        <v>212.9325749954709</v>
       </c>
       <c r="AD4" t="n">
-        <v>147653.1680990051</v>
+        <v>172044.369326361</v>
       </c>
       <c r="AE4" t="n">
-        <v>202025.5785910102</v>
+        <v>235398.6961741154</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.18335850163627e-06</v>
+        <v>7.740308491645725e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.6328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>182744.540915022</v>
+        <v>212932.5749954709</v>
       </c>
     </row>
     <row r="5">
@@ -4945,28 +4945,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>137.965952588311</v>
+        <v>162.1865616150748</v>
       </c>
       <c r="AB5" t="n">
-        <v>188.7711029594992</v>
+        <v>221.9108087677574</v>
       </c>
       <c r="AC5" t="n">
-        <v>170.7550538350047</v>
+        <v>200.7319526328026</v>
       </c>
       <c r="AD5" t="n">
-        <v>137965.952588311</v>
+        <v>162186.5616150748</v>
       </c>
       <c r="AE5" t="n">
-        <v>188771.1029594992</v>
+        <v>221910.8087677574</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.432459079290281e-06</v>
+        <v>8.201209778431219e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.427734375</v>
       </c>
       <c r="AH5" t="n">
-        <v>170755.0538350047</v>
+        <v>200731.9526328026</v>
       </c>
     </row>
     <row r="6">
@@ -5051,28 +5051,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>133.378064908784</v>
+        <v>157.5986739355478</v>
       </c>
       <c r="AB6" t="n">
-        <v>182.493752633054</v>
+        <v>215.6334584413123</v>
       </c>
       <c r="AC6" t="n">
-        <v>165.076805013397</v>
+        <v>195.0537038111949</v>
       </c>
       <c r="AD6" t="n">
-        <v>133378.064908784</v>
+        <v>157598.6739355478</v>
       </c>
       <c r="AE6" t="n">
-        <v>182493.752633054</v>
+        <v>215633.4584413123</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.561490937730251e-06</v>
+        <v>8.439952498947542e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.331705729166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>165076.805013397</v>
+        <v>195053.7038111949</v>
       </c>
     </row>
     <row r="7">
@@ -5157,28 +5157,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>129.2146775908242</v>
+        <v>141.4103677130532</v>
       </c>
       <c r="AB7" t="n">
-        <v>176.7972224289389</v>
+        <v>193.4839036900398</v>
       </c>
       <c r="AC7" t="n">
-        <v>159.9239436568305</v>
+        <v>175.0180714782815</v>
       </c>
       <c r="AD7" t="n">
-        <v>129214.6775908242</v>
+        <v>141410.3677130532</v>
       </c>
       <c r="AE7" t="n">
-        <v>176797.2224289389</v>
+        <v>193483.9036900398</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.675210766659255e-06</v>
+        <v>8.650363955958309e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.250325520833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>159923.9436568305</v>
+        <v>175018.0714782815</v>
       </c>
     </row>
     <row r="8">
@@ -5263,28 +5263,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>126.3633700742158</v>
+        <v>138.5590601964448</v>
       </c>
       <c r="AB8" t="n">
-        <v>172.8959376939076</v>
+        <v>189.5826189550085</v>
       </c>
       <c r="AC8" t="n">
-        <v>156.3949920614218</v>
+        <v>171.4891198828728</v>
       </c>
       <c r="AD8" t="n">
-        <v>126363.3700742158</v>
+        <v>138559.0601964449</v>
       </c>
       <c r="AE8" t="n">
-        <v>172895.9376939076</v>
+        <v>189582.6189550085</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.749343397340396e-06</v>
+        <v>8.787528731710814e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.199869791666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>156394.9920614218</v>
+        <v>171489.1198828728</v>
       </c>
     </row>
     <row r="9">
@@ -5369,28 +5369,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>123.0905374947582</v>
+        <v>135.2862276169872</v>
       </c>
       <c r="AB9" t="n">
-        <v>168.4179037715128</v>
+        <v>185.1045850326138</v>
       </c>
       <c r="AC9" t="n">
-        <v>152.3443354116189</v>
+        <v>167.4384632330699</v>
       </c>
       <c r="AD9" t="n">
-        <v>123090.5374947582</v>
+        <v>135286.2276169872</v>
       </c>
       <c r="AE9" t="n">
-        <v>168417.9037715128</v>
+        <v>185104.5850326138</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.8386946914989e-06</v>
+        <v>8.952852019362134e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.141276041666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>152344.3354116189</v>
+        <v>167438.4632330699</v>
       </c>
     </row>
     <row r="10">
@@ -5475,28 +5475,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>121.8259086151943</v>
+        <v>134.0215987374233</v>
       </c>
       <c r="AB10" t="n">
-        <v>166.6875827470057</v>
+        <v>183.3742640081066</v>
       </c>
       <c r="AC10" t="n">
-        <v>150.7791537971694</v>
+        <v>165.8732816186204</v>
       </c>
       <c r="AD10" t="n">
-        <v>121825.9086151943</v>
+        <v>134021.5987374233</v>
       </c>
       <c r="AE10" t="n">
-        <v>166687.5827470057</v>
+        <v>183374.2640081067</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.863343324370211e-06</v>
+        <v>8.998458443541805e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.125</v>
       </c>
       <c r="AH10" t="n">
-        <v>150779.1537971694</v>
+        <v>165873.2816186204</v>
       </c>
     </row>
     <row r="11">
@@ -5581,28 +5581,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>120.1120428649613</v>
+        <v>132.3077329871903</v>
       </c>
       <c r="AB11" t="n">
-        <v>164.3425960171175</v>
+        <v>181.0292772782185</v>
       </c>
       <c r="AC11" t="n">
-        <v>148.6579693095714</v>
+        <v>163.7520971310224</v>
       </c>
       <c r="AD11" t="n">
-        <v>120112.0428649613</v>
+        <v>132307.7329871903</v>
       </c>
       <c r="AE11" t="n">
-        <v>164342.5960171175</v>
+        <v>181029.2772782185</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.903210620718885e-06</v>
+        <v>9.072223379620294e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.098958333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>148657.9693095714</v>
+        <v>163752.0971310224</v>
       </c>
     </row>
     <row r="12">
@@ -5687,28 +5687,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>118.6753050096117</v>
+        <v>130.8709951318407</v>
       </c>
       <c r="AB12" t="n">
-        <v>162.3767878990284</v>
+        <v>179.0634691601294</v>
       </c>
       <c r="AC12" t="n">
-        <v>146.8797751592431</v>
+        <v>161.9739029806941</v>
       </c>
       <c r="AD12" t="n">
-        <v>118675.3050096117</v>
+        <v>130870.9951318407</v>
       </c>
       <c r="AE12" t="n">
-        <v>162376.7878990285</v>
+        <v>179063.4691601294</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.923844514145248e-06</v>
+        <v>9.110401484710097e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.0859375</v>
       </c>
       <c r="AH12" t="n">
-        <v>146879.7751592431</v>
+        <v>161973.9029806941</v>
       </c>
     </row>
     <row r="13">
@@ -5793,28 +5793,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>116.9920559341794</v>
+        <v>129.1877460564085</v>
       </c>
       <c r="AB13" t="n">
-        <v>160.0736922543149</v>
+        <v>176.7603735154159</v>
       </c>
       <c r="AC13" t="n">
-        <v>144.7964837304453</v>
+        <v>159.8906115518963</v>
       </c>
       <c r="AD13" t="n">
-        <v>116992.0559341794</v>
+        <v>129187.7460564085</v>
       </c>
       <c r="AE13" t="n">
-        <v>160073.692254315</v>
+        <v>176760.3735154159</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.953348180763939e-06</v>
+        <v>9.164990992440314e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.068033854166667</v>
       </c>
       <c r="AH13" t="n">
-        <v>144796.4837304453</v>
+        <v>159890.6115518963</v>
       </c>
     </row>
     <row r="14">
@@ -5899,28 +5899,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>115.2643545140501</v>
+        <v>127.4600446362792</v>
       </c>
       <c r="AB14" t="n">
-        <v>157.709774950488</v>
+        <v>174.396456211589</v>
       </c>
       <c r="AC14" t="n">
-        <v>142.6581753763161</v>
+        <v>157.7523031977671</v>
       </c>
       <c r="AD14" t="n">
-        <v>115264.3545140501</v>
+        <v>127460.0446362792</v>
       </c>
       <c r="AE14" t="n">
-        <v>157709.774950488</v>
+        <v>174396.456211589</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.982758481349026e-06</v>
+        <v>9.219407748563788e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.050130208333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>142658.1753763161</v>
+        <v>157752.3031977671</v>
       </c>
     </row>
     <row r="15">
@@ -6005,28 +6005,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>113.5760473938148</v>
+        <v>125.7717375160438</v>
       </c>
       <c r="AB15" t="n">
-        <v>155.3997586657297</v>
+        <v>172.0864399268307</v>
       </c>
       <c r="AC15" t="n">
-        <v>140.5686238036462</v>
+        <v>155.6627516250972</v>
       </c>
       <c r="AD15" t="n">
-        <v>113576.0473938148</v>
+        <v>125771.7375160438</v>
       </c>
       <c r="AE15" t="n">
-        <v>155399.7586657297</v>
+        <v>172086.4399268307</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.006006623716286e-06</v>
+        <v>9.262422898642343e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.035481770833333</v>
       </c>
       <c r="AH15" t="n">
-        <v>140568.6238036462</v>
+        <v>155662.7516250972</v>
       </c>
     </row>
     <row r="16">
@@ -6111,28 +6111,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>113.259477165332</v>
+        <v>125.4551672875611</v>
       </c>
       <c r="AB16" t="n">
-        <v>154.966613313027</v>
+        <v>171.6532945741279</v>
       </c>
       <c r="AC16" t="n">
-        <v>140.176817235482</v>
+        <v>155.270945056933</v>
       </c>
       <c r="AD16" t="n">
-        <v>113259.477165332</v>
+        <v>125455.1672875611</v>
       </c>
       <c r="AE16" t="n">
-        <v>154966.613313027</v>
+        <v>171653.2945741279</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.997697046725579e-06</v>
+        <v>9.247048005642379e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.040364583333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>140176.817235482</v>
+        <v>155270.945056933</v>
       </c>
     </row>
     <row r="17">
@@ -6217,28 +6217,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>112.3699254099873</v>
+        <v>124.5656155322163</v>
       </c>
       <c r="AB17" t="n">
-        <v>153.7494893571113</v>
+        <v>170.4361706182122</v>
       </c>
       <c r="AC17" t="n">
-        <v>139.0758538816742</v>
+        <v>154.1699817031252</v>
       </c>
       <c r="AD17" t="n">
-        <v>112369.9254099873</v>
+        <v>124565.6155322163</v>
       </c>
       <c r="AE17" t="n">
-        <v>153749.4893571112</v>
+        <v>170436.1706182122</v>
       </c>
       <c r="AF17" t="n">
-        <v>5.021598751328062e-06</v>
+        <v>9.291272416968122e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>3.025716145833333</v>
       </c>
       <c r="AH17" t="n">
-        <v>139075.8538816742</v>
+        <v>154169.9817031252</v>
       </c>
     </row>
   </sheetData>
@@ -6514,28 +6514,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>246.0439443323099</v>
+        <v>281.1644885298725</v>
       </c>
       <c r="AB2" t="n">
-        <v>336.648179328047</v>
+        <v>384.701657308369</v>
       </c>
       <c r="AC2" t="n">
-        <v>304.5189495817656</v>
+        <v>347.9862710670247</v>
       </c>
       <c r="AD2" t="n">
-        <v>246043.9443323099</v>
+        <v>281164.4885298725</v>
       </c>
       <c r="AE2" t="n">
-        <v>336648.179328047</v>
+        <v>384701.657308369</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.949442269247874e-06</v>
+        <v>5.622092159686472e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.330403645833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>304518.9495817656</v>
+        <v>347986.2710670247</v>
       </c>
     </row>
     <row r="3">
@@ -6620,28 +6620,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>143.4154089261588</v>
+        <v>166.9428331915929</v>
       </c>
       <c r="AB3" t="n">
-        <v>196.2272895339849</v>
+        <v>228.4185493706391</v>
       </c>
       <c r="AC3" t="n">
-        <v>177.4996324276475</v>
+        <v>206.6186036062186</v>
       </c>
       <c r="AD3" t="n">
-        <v>143415.4089261588</v>
+        <v>166942.8331915929</v>
       </c>
       <c r="AE3" t="n">
-        <v>196227.2895339849</v>
+        <v>228418.5493706391</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.145078574419287e-06</v>
+        <v>7.901159482762047e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.792317708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>177499.6324276475</v>
+        <v>206618.6036062186</v>
       </c>
     </row>
     <row r="4">
@@ -6726,28 +6726,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>127.6009871056172</v>
+        <v>150.9578191704592</v>
       </c>
       <c r="AB4" t="n">
-        <v>174.5892999160801</v>
+        <v>206.5471479778874</v>
       </c>
       <c r="AC4" t="n">
-        <v>157.9267421697595</v>
+        <v>186.8345780656795</v>
       </c>
       <c r="AD4" t="n">
-        <v>127600.9871056173</v>
+        <v>150957.8191704592</v>
       </c>
       <c r="AE4" t="n">
-        <v>174589.2999160801</v>
+        <v>206547.1479778874</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.579908095857343e-06</v>
+        <v>8.730011658906018e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.4326171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>157926.7421697595</v>
+        <v>186834.5780656795</v>
       </c>
     </row>
     <row r="5">
@@ -6832,28 +6832,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>119.3238098225382</v>
+        <v>131.0876114638063</v>
       </c>
       <c r="AB5" t="n">
-        <v>163.2641007940872</v>
+        <v>179.3598531819626</v>
       </c>
       <c r="AC5" t="n">
-        <v>147.6824041569492</v>
+        <v>162.2420005274613</v>
       </c>
       <c r="AD5" t="n">
-        <v>119323.8098225382</v>
+        <v>131087.6114638063</v>
       </c>
       <c r="AE5" t="n">
-        <v>163264.1007940872</v>
+        <v>179359.8531819626</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.836923057329283e-06</v>
+        <v>9.219921841207021e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.250325520833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>147682.4041569492</v>
+        <v>162242.0005274613</v>
       </c>
     </row>
     <row r="6">
@@ -6938,28 +6938,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>116.8756236073915</v>
+        <v>128.6394252486596</v>
       </c>
       <c r="AB6" t="n">
-        <v>159.9143844081721</v>
+        <v>176.0101367960476</v>
       </c>
       <c r="AC6" t="n">
-        <v>144.6523800015483</v>
+        <v>159.2119763720604</v>
       </c>
       <c r="AD6" t="n">
-        <v>116875.6236073915</v>
+        <v>128639.4252486597</v>
       </c>
       <c r="AE6" t="n">
-        <v>159914.3844081721</v>
+        <v>176010.1367960476</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.911390751915853e-06</v>
+        <v>9.36186875986695e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.201497395833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>144652.3800015483</v>
+        <v>159211.9763720604</v>
       </c>
     </row>
     <row r="7">
@@ -7044,28 +7044,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>113.0643684309346</v>
+        <v>124.8281700722027</v>
       </c>
       <c r="AB7" t="n">
-        <v>154.6996569350347</v>
+        <v>170.7954093229101</v>
       </c>
       <c r="AC7" t="n">
-        <v>139.9353387995295</v>
+        <v>154.4949351700416</v>
       </c>
       <c r="AD7" t="n">
-        <v>113064.3684309346</v>
+        <v>124828.1700722027</v>
       </c>
       <c r="AE7" t="n">
-        <v>154699.6569350347</v>
+        <v>170795.4093229101</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.025941576532809e-06</v>
+        <v>9.580220310490396e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.128255208333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>139935.3387995295</v>
+        <v>154494.9351700416</v>
       </c>
     </row>
     <row r="8">
@@ -7150,28 +7150,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>110.3802023178684</v>
+        <v>122.1440039591365</v>
       </c>
       <c r="AB8" t="n">
-        <v>151.027062442088</v>
+        <v>167.1228148299634</v>
       </c>
       <c r="AC8" t="n">
-        <v>136.6132515704697</v>
+        <v>151.1728479409818</v>
       </c>
       <c r="AD8" t="n">
-        <v>110380.2023178684</v>
+        <v>122144.0039591365</v>
       </c>
       <c r="AE8" t="n">
-        <v>151027.062442088</v>
+        <v>167122.8148299634</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.100602442830369e-06</v>
+        <v>9.722535444244127e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.082682291666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>136613.2515704697</v>
+        <v>151172.8479409818</v>
       </c>
     </row>
     <row r="9">
@@ -7256,28 +7256,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>108.6944647345157</v>
+        <v>120.4582663757838</v>
       </c>
       <c r="AB9" t="n">
-        <v>148.7205619110525</v>
+        <v>164.8163142989279</v>
       </c>
       <c r="AC9" t="n">
-        <v>134.5268802129217</v>
+        <v>149.0864765834338</v>
       </c>
       <c r="AD9" t="n">
-        <v>108694.4647345157</v>
+        <v>120458.2663757838</v>
       </c>
       <c r="AE9" t="n">
-        <v>148720.5619110525</v>
+        <v>164816.314298928</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.130833815600275e-06</v>
+        <v>9.780161106423838e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.063151041666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>134526.8802129217</v>
+        <v>149086.4765834338</v>
       </c>
     </row>
     <row r="10">
@@ -7362,28 +7362,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>106.4611237496382</v>
+        <v>118.2249253909063</v>
       </c>
       <c r="AB10" t="n">
-        <v>145.6648062474942</v>
+        <v>161.7605586353696</v>
       </c>
       <c r="AC10" t="n">
-        <v>131.7627615811124</v>
+        <v>146.3223579516246</v>
       </c>
       <c r="AD10" t="n">
-        <v>106461.1237496382</v>
+        <v>118224.9253909063</v>
       </c>
       <c r="AE10" t="n">
-        <v>145664.8062474942</v>
+        <v>161760.5586353696</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.177291612093323e-06</v>
+        <v>9.868716836482755e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.037109375</v>
       </c>
       <c r="AH10" t="n">
-        <v>131762.7615811124</v>
+        <v>146322.3579516246</v>
       </c>
     </row>
     <row r="11">
@@ -7468,28 +7468,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>104.9131910639497</v>
+        <v>116.6769927052178</v>
       </c>
       <c r="AB11" t="n">
-        <v>143.5468564569658</v>
+        <v>159.6426088448412</v>
       </c>
       <c r="AC11" t="n">
-        <v>129.8469459460301</v>
+        <v>144.4065423165423</v>
       </c>
       <c r="AD11" t="n">
-        <v>104913.1910639497</v>
+        <v>116676.9927052178</v>
       </c>
       <c r="AE11" t="n">
-        <v>143546.8564569658</v>
+        <v>159642.6088448412</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.193518035816468e-06</v>
+        <v>9.899646904361963e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.02734375</v>
       </c>
       <c r="AH11" t="n">
-        <v>129846.9459460301</v>
+        <v>144406.5423165423</v>
       </c>
     </row>
     <row r="12">
@@ -7574,28 +7574,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>103.6287609920712</v>
+        <v>115.3925626333393</v>
       </c>
       <c r="AB12" t="n">
-        <v>141.789442567567</v>
+        <v>157.8851949554424</v>
       </c>
       <c r="AC12" t="n">
-        <v>128.2572571716892</v>
+        <v>142.8168535422013</v>
       </c>
       <c r="AD12" t="n">
-        <v>103628.7609920712</v>
+        <v>115392.5626333393</v>
       </c>
       <c r="AE12" t="n">
-        <v>141789.442567567</v>
+        <v>157885.1949554425</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.204625409198381e-06</v>
+        <v>9.920819272255468e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.020833333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>128257.2571716892</v>
+        <v>142816.8535422013</v>
       </c>
     </row>
     <row r="13">
@@ -7680,28 +7680,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>103.3110455061237</v>
+        <v>115.0748471473918</v>
       </c>
       <c r="AB13" t="n">
-        <v>141.3547302230758</v>
+        <v>157.4504826109512</v>
       </c>
       <c r="AC13" t="n">
-        <v>127.8640331632334</v>
+        <v>142.4236295337456</v>
       </c>
       <c r="AD13" t="n">
-        <v>103311.0455061237</v>
+        <v>115074.8471473918</v>
       </c>
       <c r="AE13" t="n">
-        <v>141354.7302230758</v>
+        <v>157450.4826109512</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.233697751702347e-06</v>
+        <v>9.97623564387238e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.0029296875</v>
       </c>
       <c r="AH13" t="n">
-        <v>127864.0331632334</v>
+        <v>142423.6295337456</v>
       </c>
     </row>
   </sheetData>
@@ -7977,28 +7977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.2208539790209</v>
+        <v>129.1477389614024</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.0725467811531</v>
+        <v>176.7056340430402</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.9407107375247</v>
+        <v>159.8410963379368</v>
       </c>
       <c r="AD2" t="n">
-        <v>108220.8539790209</v>
+        <v>129147.7389614024</v>
       </c>
       <c r="AE2" t="n">
-        <v>148072.5467811531</v>
+        <v>176705.6340430402</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.659576530426476e-06</v>
+        <v>9.923678584957932e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.7646484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>133940.7107375247</v>
+        <v>159841.0963379368</v>
       </c>
     </row>
     <row r="3">
@@ -8083,28 +8083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.2354716502425</v>
+        <v>99.69900364998428</v>
       </c>
       <c r="AB3" t="n">
-        <v>122.0959091029762</v>
+        <v>136.4125752034682</v>
       </c>
       <c r="AC3" t="n">
-        <v>110.4432469009048</v>
+        <v>123.3935504823374</v>
       </c>
       <c r="AD3" t="n">
-        <v>89235.4716502425</v>
+        <v>99699.00364998428</v>
       </c>
       <c r="AE3" t="n">
-        <v>122095.9091029762</v>
+        <v>136412.5752034681</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.484492077539495e-06</v>
+        <v>1.168053281748946e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.1982421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>110443.2469009048</v>
+        <v>123393.5504823375</v>
       </c>
     </row>
     <row r="4">
@@ -8189,28 +8189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.71619623827536</v>
+        <v>93.17972823801715</v>
       </c>
       <c r="AB4" t="n">
-        <v>113.1759488741945</v>
+        <v>127.4926149746865</v>
       </c>
       <c r="AC4" t="n">
-        <v>102.3745951571124</v>
+        <v>115.3248987385451</v>
       </c>
       <c r="AD4" t="n">
-        <v>82716.19623827536</v>
+        <v>93179.72823801715</v>
       </c>
       <c r="AE4" t="n">
-        <v>113175.9488741945</v>
+        <v>127492.6149746865</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.762876825147665e-06</v>
+        <v>1.227341947578955e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.043619791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>102374.5951571124</v>
+        <v>115324.8987385451</v>
       </c>
     </row>
     <row r="5">
@@ -8295,28 +8295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>82.14668533904675</v>
+        <v>92.61021733878853</v>
       </c>
       <c r="AB5" t="n">
-        <v>112.3967189368227</v>
+        <v>126.7133850373147</v>
       </c>
       <c r="AC5" t="n">
-        <v>101.669733831307</v>
+        <v>114.6200374127397</v>
       </c>
       <c r="AD5" t="n">
-        <v>82146.68533904676</v>
+        <v>92610.21733878853</v>
       </c>
       <c r="AE5" t="n">
-        <v>112396.7189368227</v>
+        <v>126713.3850373147</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.790036312719193e-06</v>
+        <v>1.233126207659932e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.028971354166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>101669.733831307</v>
+        <v>114620.0374127397</v>
       </c>
     </row>
   </sheetData>
@@ -8592,28 +8592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.7044666118822</v>
+        <v>172.5628073582621</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.2004998301165</v>
+        <v>236.1080459612337</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.5210135306081</v>
+        <v>213.5742254344855</v>
       </c>
       <c r="AD2" t="n">
-        <v>150704.4666118822</v>
+        <v>172562.8073582621</v>
       </c>
       <c r="AE2" t="n">
-        <v>206200.4998301165</v>
+        <v>236108.0459612337</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.977299855506013e-06</v>
+        <v>8.075293785167536e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.21875</v>
       </c>
       <c r="AH2" t="n">
-        <v>186521.0135306081</v>
+        <v>213574.2254344855</v>
       </c>
     </row>
     <row r="3">
@@ -8698,28 +8698,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.2808881044373</v>
+        <v>129.0538879962454</v>
       </c>
       <c r="AB3" t="n">
-        <v>146.7864440031806</v>
+        <v>176.5772230121001</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.7773518036249</v>
+        <v>159.7249406755636</v>
       </c>
       <c r="AD3" t="n">
-        <v>107280.8881044373</v>
+        <v>129053.8879962454</v>
       </c>
       <c r="AE3" t="n">
-        <v>146786.4440031806</v>
+        <v>176577.2230121001</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.956184750598019e-06</v>
+        <v>1.006276855370624e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.385416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>132777.3518036249</v>
+        <v>159724.9406755636</v>
       </c>
     </row>
     <row r="4">
@@ -8804,28 +8804,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>98.58577760526093</v>
+        <v>109.5576631600122</v>
       </c>
       <c r="AB4" t="n">
-        <v>134.8894102170115</v>
+        <v>149.9016280784431</v>
       </c>
       <c r="AC4" t="n">
-        <v>122.0157542244122</v>
+        <v>135.5952270829337</v>
       </c>
       <c r="AD4" t="n">
-        <v>98585.77760526093</v>
+        <v>109557.6631600122</v>
       </c>
       <c r="AE4" t="n">
-        <v>134889.4102170115</v>
+        <v>149901.6280784431</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.301073098405345e-06</v>
+        <v>1.076301113857689e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.165690104166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>122015.7542244122</v>
+        <v>135595.2270829336</v>
       </c>
     </row>
     <row r="5">
@@ -8910,28 +8910,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>94.17061930829452</v>
+        <v>105.1425048630458</v>
       </c>
       <c r="AB5" t="n">
-        <v>128.8483958520681</v>
+        <v>143.8606137134997</v>
       </c>
       <c r="AC5" t="n">
-        <v>116.5512857918402</v>
+        <v>130.1307586503617</v>
       </c>
       <c r="AD5" t="n">
-        <v>94170.61930829452</v>
+        <v>105142.5048630458</v>
       </c>
       <c r="AE5" t="n">
-        <v>128848.3958520681</v>
+        <v>143860.6137134997</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.455319127798398e-06</v>
+        <v>1.107618390598093e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.076171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>116551.2857918402</v>
+        <v>130130.7586503616</v>
       </c>
     </row>
     <row r="6">
@@ -9016,28 +9016,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>78.9204389203274</v>
+        <v>100.7786901581562</v>
       </c>
       <c r="AB6" t="n">
-        <v>107.9824262547864</v>
+        <v>137.8898499163552</v>
       </c>
       <c r="AC6" t="n">
-        <v>97.67673504734421</v>
+        <v>124.7298361699951</v>
       </c>
       <c r="AD6" t="n">
-        <v>78920.4389203274</v>
+        <v>100778.6901581562</v>
       </c>
       <c r="AE6" t="n">
-        <v>107982.4262547864</v>
+        <v>137889.8499163552</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.598532854287e-06</v>
+        <v>1.136695728427251e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.998046875</v>
       </c>
       <c r="AH6" t="n">
-        <v>97676.73504734421</v>
+        <v>124729.8361699951</v>
       </c>
     </row>
     <row r="7">
@@ -9122,28 +9122,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>89.84747099941785</v>
+        <v>100.8193565541691</v>
       </c>
       <c r="AB7" t="n">
-        <v>122.9332736120232</v>
+        <v>137.9454914734548</v>
       </c>
       <c r="AC7" t="n">
-        <v>111.2006945164571</v>
+        <v>124.7801673749786</v>
       </c>
       <c r="AD7" t="n">
-        <v>89847.47099941786</v>
+        <v>100819.3565541691</v>
       </c>
       <c r="AE7" t="n">
-        <v>122933.2736120232</v>
+        <v>137945.4914734548</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.578942783709005e-06</v>
+        <v>1.132718266809151e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.0078125</v>
       </c>
       <c r="AH7" t="n">
-        <v>111200.6945164572</v>
+        <v>124780.1673749786</v>
       </c>
     </row>
   </sheetData>
@@ -9419,28 +9419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.61520041683794</v>
+        <v>108.5375848102324</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.247226636997</v>
+        <v>148.5059118775945</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.675561498345</v>
+        <v>134.3327160773936</v>
       </c>
       <c r="AD2" t="n">
-        <v>88615.20041683794</v>
+        <v>108537.5848102324</v>
       </c>
       <c r="AE2" t="n">
-        <v>121247.226636997</v>
+        <v>148505.9118775945</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.239303116744682e-06</v>
+        <v>1.166690467913309e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.4765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>109675.561498345</v>
+        <v>134332.7160773936</v>
       </c>
     </row>
     <row r="3">
@@ -9525,28 +9525,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.61191093252206</v>
+        <v>87.65848873806645</v>
       </c>
       <c r="AB3" t="n">
-        <v>106.1920405336915</v>
+        <v>119.938211510962</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.05722122664781</v>
+        <v>108.4914769387242</v>
       </c>
       <c r="AD3" t="n">
-        <v>77611.91093252206</v>
+        <v>87658.48873806646</v>
       </c>
       <c r="AE3" t="n">
-        <v>106192.0405336915</v>
+        <v>119938.211510962</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.797742735806771e-06</v>
+        <v>1.291044063410125e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.142903645833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>96057.22122664782</v>
+        <v>108491.4769387242</v>
       </c>
     </row>
     <row r="4">
@@ -9631,28 +9631,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>76.63104987287626</v>
+        <v>86.67762767842066</v>
       </c>
       <c r="AB4" t="n">
-        <v>104.8499831593489</v>
+        <v>118.5961541366194</v>
       </c>
       <c r="AC4" t="n">
-        <v>94.84324792452267</v>
+        <v>107.2775036365991</v>
       </c>
       <c r="AD4" t="n">
-        <v>76631.04987287626</v>
+        <v>86677.62767842066</v>
       </c>
       <c r="AE4" t="n">
-        <v>104849.9831593488</v>
+        <v>118596.1541366194</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.884603658715607e-06</v>
+        <v>1.310386294339275e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.095703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>94843.24792452267</v>
+        <v>107277.5036365991</v>
       </c>
     </row>
   </sheetData>
@@ -9928,28 +9928,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>263.3179392031577</v>
+        <v>298.9496301859332</v>
       </c>
       <c r="AB2" t="n">
-        <v>360.2832211853687</v>
+        <v>409.0360727472651</v>
       </c>
       <c r="AC2" t="n">
-        <v>325.8982962161131</v>
+        <v>369.998244049999</v>
       </c>
       <c r="AD2" t="n">
-        <v>263317.9392031577</v>
+        <v>298949.6301859332</v>
       </c>
       <c r="AE2" t="n">
-        <v>360283.2211853687</v>
+        <v>409036.072747265</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.812584519831674e-06</v>
+        <v>5.317932625028711e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.538736979166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>325898.2962161131</v>
+        <v>369998.244049999</v>
       </c>
     </row>
     <row r="3">
@@ -10034,28 +10034,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.0444955822225</v>
+        <v>173.7989562374059</v>
       </c>
       <c r="AB3" t="n">
-        <v>205.2974983514696</v>
+        <v>237.7993993927171</v>
       </c>
       <c r="AC3" t="n">
-        <v>185.7041932457124</v>
+        <v>215.1041584682982</v>
       </c>
       <c r="AD3" t="n">
-        <v>150044.4955822225</v>
+        <v>173798.9562374059</v>
       </c>
       <c r="AE3" t="n">
-        <v>205297.4983514696</v>
+        <v>237799.3993927171</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.024568769426985e-06</v>
+        <v>7.609508411106628e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.870442708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>185704.1932457124</v>
+        <v>215104.1584682982</v>
       </c>
     </row>
     <row r="4">
@@ -10140,28 +10140,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>133.0684604720727</v>
+        <v>156.6523289266638</v>
       </c>
       <c r="AB4" t="n">
-        <v>182.070138183962</v>
+        <v>214.3386274503626</v>
       </c>
       <c r="AC4" t="n">
-        <v>164.6936197327796</v>
+        <v>193.8824496727143</v>
       </c>
       <c r="AD4" t="n">
-        <v>133068.4604720727</v>
+        <v>156652.3289266638</v>
       </c>
       <c r="AE4" t="n">
-        <v>182070.138183962</v>
+        <v>214338.6274503626</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.458459513655033e-06</v>
+        <v>8.429893266444742e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.494466145833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>164693.6197327796</v>
+        <v>193882.4496727143</v>
       </c>
     </row>
     <row r="5">
@@ -10246,28 +10246,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>122.5273055618114</v>
+        <v>134.4046253979541</v>
       </c>
       <c r="AB5" t="n">
-        <v>167.6472649928162</v>
+        <v>183.8983379829883</v>
       </c>
       <c r="AC5" t="n">
-        <v>151.6472453163625</v>
+        <v>166.3473387088819</v>
       </c>
       <c r="AD5" t="n">
-        <v>122527.3055618114</v>
+        <v>134404.6253979541</v>
       </c>
       <c r="AE5" t="n">
-        <v>167647.2649928162</v>
+        <v>183898.3379829883</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.772606750045163e-06</v>
+        <v>9.023871447609466e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.264973958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>151647.2453163625</v>
+        <v>166347.3387088819</v>
       </c>
     </row>
     <row r="6">
@@ -10352,28 +10352,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>120.8508553390232</v>
+        <v>132.7281751751659</v>
       </c>
       <c r="AB6" t="n">
-        <v>165.3534718382345</v>
+        <v>181.6045448284067</v>
       </c>
       <c r="AC6" t="n">
-        <v>149.5723685610944</v>
+        <v>164.2724619536139</v>
       </c>
       <c r="AD6" t="n">
-        <v>120850.8553390232</v>
+        <v>132728.1751751659</v>
       </c>
       <c r="AE6" t="n">
-        <v>165353.4718382345</v>
+        <v>181604.5448284067</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.823528849301576e-06</v>
+        <v>9.120153102813497e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.229166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>149572.3685610944</v>
+        <v>164272.4619536139</v>
       </c>
     </row>
     <row r="7">
@@ -10458,28 +10458,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>117.7003009998481</v>
+        <v>129.5776208359908</v>
       </c>
       <c r="AB7" t="n">
-        <v>161.0427443987294</v>
+        <v>177.2938173889015</v>
       </c>
       <c r="AC7" t="n">
-        <v>145.6730508982704</v>
+        <v>160.3731442907898</v>
       </c>
       <c r="AD7" t="n">
-        <v>117700.3009998481</v>
+        <v>129577.6208359908</v>
       </c>
       <c r="AE7" t="n">
-        <v>161042.7443987294</v>
+        <v>177293.8173889015</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.913503987085465e-06</v>
+        <v>9.290274824414606e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.170572916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>145673.0508982704</v>
+        <v>160373.1442907898</v>
       </c>
     </row>
     <row r="8">
@@ -10564,28 +10564,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>114.7260317958611</v>
+        <v>126.6033516320039</v>
       </c>
       <c r="AB8" t="n">
-        <v>156.97321805834</v>
+        <v>173.2242910485121</v>
       </c>
       <c r="AC8" t="n">
-        <v>141.9919144401903</v>
+        <v>156.6920078327097</v>
       </c>
       <c r="AD8" t="n">
-        <v>114726.0317958611</v>
+        <v>126603.3516320038</v>
       </c>
       <c r="AE8" t="n">
-        <v>156973.21805834</v>
+        <v>173224.2910485121</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.994481611090964e-06</v>
+        <v>9.443384373855604e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.118489583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>141991.9144401903</v>
+        <v>156692.0078327098</v>
       </c>
     </row>
     <row r="9">
@@ -10670,28 +10670,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>112.6995360005043</v>
+        <v>124.576855836647</v>
       </c>
       <c r="AB9" t="n">
-        <v>154.2004771084494</v>
+        <v>170.4515500986215</v>
       </c>
       <c r="AC9" t="n">
-        <v>139.4837999949901</v>
+        <v>154.1838933875095</v>
       </c>
       <c r="AD9" t="n">
-        <v>112699.5360005043</v>
+        <v>124576.855836647</v>
       </c>
       <c r="AE9" t="n">
-        <v>154200.4771084494</v>
+        <v>170451.5500986215</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.040522080531443e-06</v>
+        <v>9.530436020760001e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.0908203125</v>
       </c>
       <c r="AH9" t="n">
-        <v>139483.7999949901</v>
+        <v>154183.8933875095</v>
       </c>
     </row>
     <row r="10">
@@ -10776,28 +10776,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>110.8053419267369</v>
+        <v>122.6826617628796</v>
       </c>
       <c r="AB10" t="n">
-        <v>151.6087572107774</v>
+        <v>167.8598302009495</v>
       </c>
       <c r="AC10" t="n">
-        <v>137.1394302068493</v>
+        <v>151.8395235993688</v>
       </c>
       <c r="AD10" t="n">
-        <v>110805.3419267369</v>
+        <v>122682.6617628796</v>
       </c>
       <c r="AE10" t="n">
-        <v>151608.7572107774</v>
+        <v>167859.8302009495</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.084935340033277e-06</v>
+        <v>9.614410998231188e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.063151041666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>137139.4302068493</v>
+        <v>151839.5235993688</v>
       </c>
     </row>
     <row r="11">
@@ -10882,28 +10882,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>108.3402301448735</v>
+        <v>120.2175499810162</v>
       </c>
       <c r="AB11" t="n">
-        <v>148.2358825177772</v>
+        <v>164.4869555079493</v>
       </c>
       <c r="AC11" t="n">
-        <v>134.0884579406886</v>
+        <v>148.788551333208</v>
       </c>
       <c r="AD11" t="n">
-        <v>108340.2301448735</v>
+        <v>120217.5499810162</v>
       </c>
       <c r="AE11" t="n">
-        <v>148235.8825177772</v>
+        <v>164486.9555079493</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.1402604779472e-06</v>
+        <v>9.71901775896038e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.030598958333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>134088.4579406886</v>
+        <v>148788.551333208</v>
       </c>
     </row>
     <row r="12">
@@ -10988,28 +10988,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>106.4601107040579</v>
+        <v>118.3374305402007</v>
       </c>
       <c r="AB12" t="n">
-        <v>145.6634201538389</v>
+        <v>161.914493144011</v>
       </c>
       <c r="AC12" t="n">
-        <v>131.7615077742901</v>
+        <v>146.4616011668096</v>
       </c>
       <c r="AD12" t="n">
-        <v>106460.1107040579</v>
+        <v>118337.4305402007</v>
       </c>
       <c r="AE12" t="n">
-        <v>145663.4201538389</v>
+        <v>161914.493144011</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.143227743129435e-06</v>
+        <v>9.72462815616212e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.028971354166667</v>
       </c>
       <c r="AH12" t="n">
-        <v>131761.5077742901</v>
+        <v>146461.6011668096</v>
       </c>
     </row>
     <row r="13">
@@ -11094,28 +11094,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>106.0834114569703</v>
+        <v>117.960731293113</v>
       </c>
       <c r="AB13" t="n">
-        <v>145.1480036251758</v>
+        <v>161.399076615348</v>
       </c>
       <c r="AC13" t="n">
-        <v>131.2952818757309</v>
+        <v>145.9953752682503</v>
       </c>
       <c r="AD13" t="n">
-        <v>106083.4114569703</v>
+        <v>117960.731293113</v>
       </c>
       <c r="AE13" t="n">
-        <v>145148.0036251759</v>
+        <v>161399.076615348</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.160074151905993e-06</v>
+        <v>9.756480733823603e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.019205729166667</v>
       </c>
       <c r="AH13" t="n">
-        <v>131295.2818757309</v>
+        <v>145995.3752682504</v>
       </c>
     </row>
     <row r="14">
@@ -11200,28 +11200,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>106.3851760700813</v>
+        <v>118.262495906224</v>
       </c>
       <c r="AB14" t="n">
-        <v>145.5608912817493</v>
+        <v>161.8119642719215</v>
       </c>
       <c r="AC14" t="n">
-        <v>131.6687641138526</v>
+        <v>146.3688575063721</v>
       </c>
       <c r="AD14" t="n">
-        <v>106385.1760700813</v>
+        <v>118262.495906224</v>
       </c>
       <c r="AE14" t="n">
-        <v>145560.8912817493</v>
+        <v>161811.9642719215</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.156724013797018e-06</v>
+        <v>9.750146414402287e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.020833333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>131668.7641138526</v>
+        <v>146368.8575063721</v>
       </c>
     </row>
   </sheetData>
@@ -11497,28 +11497,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.29848783609125</v>
+        <v>97.72707360509634</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.1314453427896</v>
+        <v>133.7144935206401</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.9069705592289</v>
+        <v>120.9529699285362</v>
       </c>
       <c r="AD2" t="n">
-        <v>78298.48783609126</v>
+        <v>97727.07360509633</v>
       </c>
       <c r="AE2" t="n">
-        <v>107131.4453427896</v>
+        <v>133714.4935206401</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.607749353920576e-06</v>
+        <v>1.285613970095045e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.3251953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>96906.9705592289</v>
+        <v>120952.9699285362</v>
       </c>
     </row>
     <row r="3">
@@ -11603,28 +11603,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.50252866566207</v>
+        <v>82.30220715901174</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.20115830614017</v>
+        <v>112.6095107520372</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.73353898712699</v>
+        <v>101.8622170943327</v>
       </c>
       <c r="AD3" t="n">
-        <v>72502.52866566207</v>
+        <v>82302.20715901174</v>
       </c>
       <c r="AE3" t="n">
-        <v>99201.15830614018</v>
+        <v>112609.5107520372</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.975803009886316e-06</v>
+        <v>1.369992727416518e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.1201171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>89733.53898712699</v>
+        <v>101862.2170943327</v>
       </c>
     </row>
   </sheetData>
@@ -11900,28 +11900,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.9852303315767</v>
+        <v>222.0857614769756</v>
       </c>
       <c r="AB2" t="n">
-        <v>257.2096854625943</v>
+        <v>303.8675365849639</v>
       </c>
       <c r="AC2" t="n">
-        <v>232.6619540781801</v>
+        <v>274.866845374151</v>
       </c>
       <c r="AD2" t="n">
-        <v>187985.2303315767</v>
+        <v>222085.7614769756</v>
       </c>
       <c r="AE2" t="n">
-        <v>257209.6854625943</v>
+        <v>303867.5365849639</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.422662518862233e-06</v>
+        <v>6.708371235999241e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.7314453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>232661.9540781801</v>
+        <v>274866.845374151</v>
       </c>
     </row>
     <row r="3">
@@ -12006,28 +12006,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.3258073469586</v>
+        <v>148.1163886802722</v>
       </c>
       <c r="AB3" t="n">
-        <v>171.4762985964379</v>
+        <v>202.6593774261494</v>
       </c>
       <c r="AC3" t="n">
-        <v>155.1108413269382</v>
+        <v>183.3178508788779</v>
       </c>
       <c r="AD3" t="n">
-        <v>125325.8073469586</v>
+        <v>148116.3886802722</v>
       </c>
       <c r="AE3" t="n">
-        <v>171476.2985964379</v>
+        <v>202659.3774261494</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.511736735482233e-06</v>
+        <v>8.84294164964045e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.590494791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>155110.8413269382</v>
+        <v>183317.8508788779</v>
       </c>
     </row>
     <row r="4">
@@ -12112,28 +12112,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>112.999943677766</v>
+        <v>124.3953238529739</v>
       </c>
       <c r="AB4" t="n">
-        <v>154.61150814553</v>
+        <v>170.2031700299341</v>
       </c>
       <c r="AC4" t="n">
-        <v>139.8556028067775</v>
+        <v>153.9592183639739</v>
       </c>
       <c r="AD4" t="n">
-        <v>112999.943677766</v>
+        <v>124395.3238529739</v>
       </c>
       <c r="AE4" t="n">
-        <v>154611.50814553</v>
+        <v>170203.1700299341</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.923523020969584e-06</v>
+        <v>9.650037078336294e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.289388020833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>139855.6028067775</v>
+        <v>153959.218363974</v>
       </c>
     </row>
     <row r="5">
@@ -12218,28 +12218,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>108.4696680962868</v>
+        <v>119.8650482714947</v>
       </c>
       <c r="AB5" t="n">
-        <v>148.4129852333002</v>
+        <v>164.0046471177043</v>
       </c>
       <c r="AC5" t="n">
-        <v>134.2486582216074</v>
+        <v>148.3522737788038</v>
       </c>
       <c r="AD5" t="n">
-        <v>108469.6680962868</v>
+        <v>119865.0482714947</v>
       </c>
       <c r="AE5" t="n">
-        <v>148412.9852333002</v>
+        <v>164004.6471177043</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.075081868914783e-06</v>
+        <v>9.947090325775581e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.191731770833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>134248.6582216074</v>
+        <v>148352.2737788038</v>
       </c>
     </row>
     <row r="6">
@@ -12324,28 +12324,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>104.5258638617014</v>
+        <v>115.9212440369092</v>
       </c>
       <c r="AB6" t="n">
-        <v>143.0168982911797</v>
+        <v>158.6085601755838</v>
       </c>
       <c r="AC6" t="n">
-        <v>129.3675662437856</v>
+        <v>143.471181800982</v>
       </c>
       <c r="AD6" t="n">
-        <v>104525.8638617014</v>
+        <v>115921.2440369092</v>
       </c>
       <c r="AE6" t="n">
-        <v>143016.8982911797</v>
+        <v>158608.5601755838</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.198677462577249e-06</v>
+        <v>1.018933598127105e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.115234375</v>
       </c>
       <c r="AH6" t="n">
-        <v>129367.5662437856</v>
+        <v>143471.181800982</v>
       </c>
     </row>
     <row r="7">
@@ -12430,28 +12430,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>100.7526856814157</v>
+        <v>112.1480658566236</v>
       </c>
       <c r="AB7" t="n">
-        <v>137.8542694440423</v>
+        <v>153.4459313284464</v>
       </c>
       <c r="AC7" t="n">
-        <v>124.6976514480223</v>
+        <v>138.8012670052187</v>
       </c>
       <c r="AD7" t="n">
-        <v>100752.6856814157</v>
+        <v>112148.0658566236</v>
       </c>
       <c r="AE7" t="n">
-        <v>137854.2694440423</v>
+        <v>153445.9313284465</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.325059430331945e-06</v>
+        <v>1.043704289147977e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.0419921875</v>
       </c>
       <c r="AH7" t="n">
-        <v>124697.6514480223</v>
+        <v>138801.2670052187</v>
       </c>
     </row>
     <row r="8">
@@ -12536,28 +12536,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>98.75251803505448</v>
+        <v>110.1478982102624</v>
       </c>
       <c r="AB8" t="n">
-        <v>135.1175518291235</v>
+        <v>150.7092137135276</v>
       </c>
       <c r="AC8" t="n">
-        <v>122.2221223212631</v>
+        <v>136.3257378784596</v>
       </c>
       <c r="AD8" t="n">
-        <v>98752.51803505448</v>
+        <v>110147.8982102624</v>
       </c>
       <c r="AE8" t="n">
-        <v>135117.5518291235</v>
+        <v>150709.2137135276</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.347648963151092e-06</v>
+        <v>1.048131806361945e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.028971354166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>122222.1223212631</v>
+        <v>136325.7378784596</v>
       </c>
     </row>
     <row r="9">
@@ -12642,28 +12642,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>96.93003237250375</v>
+        <v>108.3254125477116</v>
       </c>
       <c r="AB9" t="n">
-        <v>132.6239465432299</v>
+        <v>148.2156084276341</v>
       </c>
       <c r="AC9" t="n">
-        <v>119.9665032240574</v>
+        <v>134.0701187812539</v>
       </c>
       <c r="AD9" t="n">
-        <v>96930.03237250375</v>
+        <v>108325.4125477116</v>
       </c>
       <c r="AE9" t="n">
-        <v>132623.9465432299</v>
+        <v>148215.6084276341</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.388349927569731e-06</v>
+        <v>1.056109139139533e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.006184895833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>119966.5032240574</v>
+        <v>134070.1187812539</v>
       </c>
     </row>
     <row r="10">
@@ -12748,28 +12748,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>97.10994378995488</v>
+        <v>108.5053239651628</v>
       </c>
       <c r="AB10" t="n">
-        <v>132.870109281718</v>
+        <v>148.4617711661221</v>
       </c>
       <c r="AC10" t="n">
-        <v>120.1891725362758</v>
+        <v>134.2927880934723</v>
       </c>
       <c r="AD10" t="n">
-        <v>97109.94378995488</v>
+        <v>108505.3239651628</v>
       </c>
       <c r="AE10" t="n">
-        <v>132870.109281718</v>
+        <v>148461.7711661221</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.390638734859776e-06</v>
+        <v>1.056557742205265e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.004557291666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>120189.1725362758</v>
+        <v>134292.7880934723</v>
       </c>
     </row>
   </sheetData>
@@ -13045,28 +13045,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>229.4882566899322</v>
+        <v>252.780100730492</v>
       </c>
       <c r="AB2" t="n">
-        <v>313.9959571103662</v>
+        <v>345.8648856902817</v>
       </c>
       <c r="AC2" t="n">
-        <v>284.0286236599396</v>
+        <v>312.8560264245202</v>
       </c>
       <c r="AD2" t="n">
-        <v>229488.2566899322</v>
+        <v>252780.100730492</v>
       </c>
       <c r="AE2" t="n">
-        <v>313995.9571103663</v>
+        <v>345864.8856902816</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.097288787565135e-06</v>
+        <v>5.955166695334943e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.123697916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>284028.6236599396</v>
+        <v>312856.0264245202</v>
       </c>
     </row>
     <row r="3">
@@ -13151,28 +13151,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>136.8955955138147</v>
+        <v>160.1873500458235</v>
       </c>
       <c r="AB3" t="n">
-        <v>187.3065931893526</v>
+        <v>219.1753992997195</v>
       </c>
       <c r="AC3" t="n">
-        <v>169.4303148218681</v>
+        <v>198.2576068052221</v>
       </c>
       <c r="AD3" t="n">
-        <v>136895.5955138147</v>
+        <v>160187.3500458235</v>
       </c>
       <c r="AE3" t="n">
-        <v>187306.5931893526</v>
+        <v>219175.3992997195</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.271228125293658e-06</v>
+        <v>8.212303477171898e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.7158203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>169430.3148218681</v>
+        <v>198257.6068052221</v>
       </c>
     </row>
     <row r="4">
@@ -13257,28 +13257,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>122.8561144519853</v>
+        <v>145.9772767834019</v>
       </c>
       <c r="AB4" t="n">
-        <v>168.0971558223764</v>
+        <v>199.7325501578964</v>
       </c>
       <c r="AC4" t="n">
-        <v>152.0541991965753</v>
+        <v>180.6703558972782</v>
       </c>
       <c r="AD4" t="n">
-        <v>122856.1144519853</v>
+        <v>145977.276783402</v>
       </c>
       <c r="AE4" t="n">
-        <v>168097.1558223763</v>
+        <v>199732.5501578964</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.683764449041944e-06</v>
+        <v>9.005488337965266e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.388671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>152054.1991965753</v>
+        <v>180670.3558972782</v>
       </c>
     </row>
     <row r="5">
@@ -13363,28 +13363,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>119.4628139923099</v>
+        <v>142.5839763237265</v>
       </c>
       <c r="AB5" t="n">
-        <v>163.4542924315999</v>
+        <v>195.08968676712</v>
       </c>
       <c r="AC5" t="n">
-        <v>147.8544441715134</v>
+        <v>176.4706008722164</v>
       </c>
       <c r="AD5" t="n">
-        <v>119462.8139923099</v>
+        <v>142583.9763237265</v>
       </c>
       <c r="AE5" t="n">
-        <v>163454.2924315999</v>
+        <v>195089.68676712</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.79638072271939e-06</v>
+        <v>9.222015994362416e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.308919270833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>147854.4441715134</v>
+        <v>176470.6008722163</v>
       </c>
     </row>
     <row r="6">
@@ -13469,28 +13469,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>112.4919911647552</v>
+        <v>124.1379579393107</v>
       </c>
       <c r="AB6" t="n">
-        <v>153.9165051079457</v>
+        <v>169.8510306326775</v>
       </c>
       <c r="AC6" t="n">
-        <v>139.2269298836571</v>
+        <v>153.6406866565606</v>
       </c>
       <c r="AD6" t="n">
-        <v>112491.9911647552</v>
+        <v>124137.9579393107</v>
       </c>
       <c r="AE6" t="n">
-        <v>153916.5051079456</v>
+        <v>169851.0306326775</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.018298158987672e-06</v>
+        <v>9.648697332855847e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.162434895833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>139226.9298836571</v>
+        <v>153640.6866565606</v>
       </c>
     </row>
     <row r="7">
@@ -13575,28 +13575,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>109.2050982003762</v>
+        <v>120.8510649749316</v>
       </c>
       <c r="AB7" t="n">
-        <v>149.4192331466011</v>
+        <v>165.353758671333</v>
       </c>
       <c r="AC7" t="n">
-        <v>135.158871246341</v>
+        <v>149.5726280192446</v>
       </c>
       <c r="AD7" t="n">
-        <v>109205.0982003762</v>
+        <v>120851.0649749317</v>
       </c>
       <c r="AE7" t="n">
-        <v>149419.2331466011</v>
+        <v>165353.758671333</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.111413779214478e-06</v>
+        <v>9.827731022777301e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.10546875</v>
       </c>
       <c r="AH7" t="n">
-        <v>135158.871246341</v>
+        <v>149572.6280192446</v>
       </c>
     </row>
     <row r="8">
@@ -13681,28 +13681,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>107.8612372066069</v>
+        <v>119.5072039811623</v>
       </c>
       <c r="AB8" t="n">
-        <v>147.580503247964</v>
+        <v>163.5150287726959</v>
       </c>
       <c r="AC8" t="n">
-        <v>133.4956271485557</v>
+        <v>147.9093839214592</v>
       </c>
       <c r="AD8" t="n">
-        <v>107861.2372066069</v>
+        <v>119507.2039811623</v>
       </c>
       <c r="AE8" t="n">
-        <v>147580.503247964</v>
+        <v>163515.0287726959</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.133059504544688e-06</v>
+        <v>9.869349325565322e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.092447916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>133495.6271485556</v>
+        <v>147909.3839214592</v>
       </c>
     </row>
     <row r="9">
@@ -13787,28 +13787,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>104.7217145181335</v>
+        <v>116.3676812926889</v>
       </c>
       <c r="AB9" t="n">
-        <v>143.2848697996311</v>
+        <v>159.219395324363</v>
       </c>
       <c r="AC9" t="n">
-        <v>129.6099629275708</v>
+        <v>144.0237197004744</v>
       </c>
       <c r="AD9" t="n">
-        <v>104721.7145181335</v>
+        <v>116367.6812926889</v>
       </c>
       <c r="AE9" t="n">
-        <v>143284.8697996311</v>
+        <v>159219.395324363</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.219447399331022e-06</v>
+        <v>1.003544759705266e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.040364583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>129609.9629275708</v>
+        <v>144023.7197004744</v>
       </c>
     </row>
     <row r="10">
@@ -13893,28 +13893,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>102.3672165160445</v>
+        <v>114.0131832906</v>
       </c>
       <c r="AB10" t="n">
-        <v>140.0633417600538</v>
+        <v>155.9978672847856</v>
       </c>
       <c r="AC10" t="n">
-        <v>126.6958930026467</v>
+        <v>141.1096497755503</v>
       </c>
       <c r="AD10" t="n">
-        <v>102367.2165160445</v>
+        <v>114013.1832906</v>
       </c>
       <c r="AE10" t="n">
-        <v>140063.3417600538</v>
+        <v>155997.8672847856</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.270734117906206e-06</v>
+        <v>1.013405672888374e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.011067708333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>126695.8930026467</v>
+        <v>141109.6497755503</v>
       </c>
     </row>
     <row r="11">
@@ -13999,28 +13999,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>101.3972258385566</v>
+        <v>113.0431926131121</v>
       </c>
       <c r="AB11" t="n">
-        <v>138.7361577221469</v>
+        <v>154.6706832468788</v>
       </c>
       <c r="AC11" t="n">
-        <v>125.4953735466028</v>
+        <v>139.9091303195064</v>
       </c>
       <c r="AD11" t="n">
-        <v>101397.2258385566</v>
+        <v>113043.1926131121</v>
       </c>
       <c r="AE11" t="n">
-        <v>138736.1577221469</v>
+        <v>154670.6832468788</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.274146732260068e-06</v>
+        <v>1.014061817301699e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.009440104166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>125495.3735466028</v>
+        <v>139909.1303195064</v>
       </c>
     </row>
     <row r="12">
@@ -14105,28 +14105,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>101.7637045799497</v>
+        <v>113.4096713545052</v>
       </c>
       <c r="AB12" t="n">
-        <v>139.2375901040218</v>
+        <v>155.1721156287537</v>
       </c>
       <c r="AC12" t="n">
-        <v>125.9489499257165</v>
+        <v>140.3627066986201</v>
       </c>
       <c r="AD12" t="n">
-        <v>101763.7045799497</v>
+        <v>113409.6713545052</v>
       </c>
       <c r="AE12" t="n">
-        <v>139237.5901040218</v>
+        <v>155172.1156287537</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.264006392465734e-06</v>
+        <v>1.012112131044963e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.014322916666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>125948.9499257165</v>
+        <v>140362.7066986201</v>
       </c>
     </row>
   </sheetData>
@@ -14402,28 +14402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>317.1229799242268</v>
+        <v>353.3162948963148</v>
       </c>
       <c r="AB2" t="n">
-        <v>433.9016516108039</v>
+        <v>483.4229418919794</v>
       </c>
       <c r="AC2" t="n">
-        <v>392.4906869658609</v>
+        <v>437.2857348061684</v>
       </c>
       <c r="AD2" t="n">
-        <v>317122.9799242268</v>
+        <v>353316.2948963149</v>
       </c>
       <c r="AE2" t="n">
-        <v>433901.6516108039</v>
+        <v>483422.9418919794</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.541317272895272e-06</v>
+        <v>4.734281329575894e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.027018229166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>392490.6869658609</v>
+        <v>437285.7348061684</v>
       </c>
     </row>
     <row r="3">
@@ -14508,28 +14508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>175.2155147622713</v>
+        <v>199.3159742949895</v>
       </c>
       <c r="AB3" t="n">
-        <v>239.7375972605885</v>
+        <v>272.7129092304721</v>
       </c>
       <c r="AC3" t="n">
-        <v>216.8573774519383</v>
+        <v>246.6855719285678</v>
       </c>
       <c r="AD3" t="n">
-        <v>175215.5147622713</v>
+        <v>199315.9742949895</v>
       </c>
       <c r="AE3" t="n">
-        <v>239737.5972605885</v>
+        <v>272712.9092304721</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.814281663266027e-06</v>
+        <v>7.10571743903942e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.015299479166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>216857.3774519383</v>
+        <v>246685.5719285677</v>
       </c>
     </row>
     <row r="4">
@@ -14614,28 +14614,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>142.5608800595517</v>
+        <v>166.7465909382904</v>
       </c>
       <c r="AB4" t="n">
-        <v>195.0580854395407</v>
+        <v>228.1500420620735</v>
       </c>
       <c r="AC4" t="n">
-        <v>176.4420155309885</v>
+        <v>206.3757222583301</v>
       </c>
       <c r="AD4" t="n">
-        <v>142560.8800595517</v>
+        <v>166746.5909382904</v>
       </c>
       <c r="AE4" t="n">
-        <v>195058.0854395407</v>
+        <v>228150.0420620735</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.274773661054293e-06</v>
+        <v>7.96357910424754e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.583984375</v>
       </c>
       <c r="AH4" t="n">
-        <v>176442.0155309885</v>
+        <v>206375.7222583301</v>
       </c>
     </row>
     <row r="5">
@@ -14720,28 +14720,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>133.1480366504666</v>
+        <v>157.1631553286131</v>
       </c>
       <c r="AB5" t="n">
-        <v>182.1790178218937</v>
+        <v>215.0375626695796</v>
       </c>
       <c r="AC5" t="n">
-        <v>164.7921080508806</v>
+        <v>194.5146794955712</v>
       </c>
       <c r="AD5" t="n">
-        <v>133148.0366504666</v>
+        <v>157163.1553286131</v>
       </c>
       <c r="AE5" t="n">
-        <v>182179.0178218937</v>
+        <v>215037.5626695796</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.532076976393169e-06</v>
+        <v>8.442915665187453e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.380533854166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>164792.1080508806</v>
+        <v>194514.6794955712</v>
       </c>
     </row>
     <row r="6">
@@ -14826,28 +14826,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>129.5670181698375</v>
+        <v>153.5821368479841</v>
       </c>
       <c r="AB6" t="n">
-        <v>177.279310353314</v>
+        <v>210.137855201</v>
       </c>
       <c r="AC6" t="n">
-        <v>160.360021786318</v>
+        <v>190.0825932310086</v>
       </c>
       <c r="AD6" t="n">
-        <v>129567.0181698375</v>
+        <v>153582.1368479841</v>
       </c>
       <c r="AE6" t="n">
-        <v>177279.310353314</v>
+        <v>210137.8552009999</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.636824083186209e-06</v>
+        <v>8.638051580449385e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.304036458333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>160360.021786318</v>
+        <v>190082.5932310086</v>
       </c>
     </row>
     <row r="7">
@@ -14932,28 +14932,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>125.3148029639272</v>
+        <v>137.4077479118476</v>
       </c>
       <c r="AB7" t="n">
-        <v>171.4612419140952</v>
+        <v>188.0073426949101</v>
       </c>
       <c r="AC7" t="n">
-        <v>155.0972216332262</v>
+        <v>170.0641857781235</v>
       </c>
       <c r="AD7" t="n">
-        <v>125314.8029639272</v>
+        <v>137407.7479118476</v>
       </c>
       <c r="AE7" t="n">
-        <v>171461.2419140952</v>
+        <v>188007.34269491</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.754182252252623e-06</v>
+        <v>8.856680948222639e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.22265625</v>
       </c>
       <c r="AH7" t="n">
-        <v>155097.2216332261</v>
+        <v>170064.1857781235</v>
       </c>
     </row>
     <row r="8">
@@ -15038,28 +15038,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>122.4791453439819</v>
+        <v>134.5720902919023</v>
       </c>
       <c r="AB8" t="n">
-        <v>167.5813700581031</v>
+        <v>184.1274708389178</v>
       </c>
       <c r="AC8" t="n">
-        <v>151.5876393017342</v>
+        <v>166.5546034466316</v>
       </c>
       <c r="AD8" t="n">
-        <v>122479.1453439819</v>
+        <v>134572.0902919023</v>
       </c>
       <c r="AE8" t="n">
-        <v>167581.3700581031</v>
+        <v>184127.4708389178</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.829001614247652e-06</v>
+        <v>8.996063744838304e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.172200520833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>151587.6393017342</v>
+        <v>166554.6034466316</v>
       </c>
     </row>
     <row r="9">
@@ -15144,28 +15144,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>118.2839250149453</v>
+        <v>130.3768699628657</v>
       </c>
       <c r="AB9" t="n">
-        <v>161.8412845238594</v>
+        <v>178.3873853046742</v>
       </c>
       <c r="AC9" t="n">
-        <v>146.3953794746163</v>
+        <v>161.3623436195137</v>
       </c>
       <c r="AD9" t="n">
-        <v>118283.9250149453</v>
+        <v>130376.8699628657</v>
       </c>
       <c r="AE9" t="n">
-        <v>161841.2845238594</v>
+        <v>178387.3853046742</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.950030167110049e-06</v>
+        <v>9.221530759237986e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.094075520833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>146395.3794746163</v>
+        <v>161362.3436195137</v>
       </c>
     </row>
     <row r="10">
@@ -15250,28 +15250,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>118.1059774185453</v>
+        <v>130.1989223664657</v>
       </c>
       <c r="AB10" t="n">
-        <v>161.5978087719711</v>
+        <v>178.1439095527859</v>
       </c>
       <c r="AC10" t="n">
-        <v>146.1751407067678</v>
+        <v>161.1421048516652</v>
       </c>
       <c r="AD10" t="n">
-        <v>118105.9774185453</v>
+        <v>130198.9223664657</v>
       </c>
       <c r="AE10" t="n">
-        <v>161597.8087719711</v>
+        <v>178143.9095527859</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.93807789167185e-06</v>
+        <v>9.199264576633974e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.102213541666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>146175.1407067678</v>
+        <v>161142.1048516651</v>
       </c>
     </row>
     <row r="11">
@@ -15356,28 +15356,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>116.5542621895116</v>
+        <v>128.647207137432</v>
       </c>
       <c r="AB11" t="n">
-        <v>159.4746835387639</v>
+        <v>176.0207843195787</v>
       </c>
       <c r="AC11" t="n">
-        <v>144.2546435659922</v>
+        <v>159.2216077108896</v>
       </c>
       <c r="AD11" t="n">
-        <v>116554.2621895116</v>
+        <v>128647.207137432</v>
       </c>
       <c r="AE11" t="n">
-        <v>159474.6835387639</v>
+        <v>176020.7843195787</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.958688508372367e-06</v>
+        <v>9.237660592305461e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.089192708333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>144254.6435659922</v>
+        <v>159221.6077108896</v>
       </c>
     </row>
     <row r="12">
@@ -15462,28 +15462,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>114.4543394326836</v>
+        <v>126.5472843806041</v>
       </c>
       <c r="AB12" t="n">
-        <v>156.6014765808196</v>
+        <v>173.1475773616343</v>
       </c>
       <c r="AC12" t="n">
-        <v>141.6556514475419</v>
+        <v>156.6226155924393</v>
       </c>
       <c r="AD12" t="n">
-        <v>114454.3394326836</v>
+        <v>126547.284380604</v>
       </c>
       <c r="AE12" t="n">
-        <v>156601.4765808196</v>
+        <v>173147.5773616344</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.01402660252718e-06</v>
+        <v>9.340751264519312e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.055013020833333</v>
       </c>
       <c r="AH12" t="n">
-        <v>141655.6514475419</v>
+        <v>156622.6155924393</v>
       </c>
     </row>
     <row r="13">
@@ -15568,28 +15568,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>113.1226287554827</v>
+        <v>125.2155737034031</v>
       </c>
       <c r="AB13" t="n">
-        <v>154.7793712813455</v>
+        <v>171.3254720621603</v>
       </c>
       <c r="AC13" t="n">
-        <v>140.0074453205082</v>
+        <v>154.9744094654056</v>
       </c>
       <c r="AD13" t="n">
-        <v>113122.6287554827</v>
+        <v>125215.5737034031</v>
       </c>
       <c r="AE13" t="n">
-        <v>154779.3712813455</v>
+        <v>171325.4720621603</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.019955684043767e-06</v>
+        <v>9.351796693685081e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.0517578125</v>
       </c>
       <c r="AH13" t="n">
-        <v>140007.4453205082</v>
+        <v>154974.4094654056</v>
       </c>
     </row>
     <row r="14">
@@ -15674,28 +15674,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>112.0730162963621</v>
+        <v>124.1659612442825</v>
       </c>
       <c r="AB14" t="n">
-        <v>153.3432452091438</v>
+        <v>169.8893459899586</v>
       </c>
       <c r="AC14" t="n">
-        <v>138.7083811050214</v>
+        <v>153.6753452499188</v>
       </c>
       <c r="AD14" t="n">
-        <v>112073.0162963621</v>
+        <v>124165.9612442825</v>
       </c>
       <c r="AE14" t="n">
-        <v>153343.2452091438</v>
+        <v>169889.3459899586</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.042072099224687e-06</v>
+        <v>9.392997897716126e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.038736979166667</v>
       </c>
       <c r="AH14" t="n">
-        <v>138708.3811050214</v>
+        <v>153675.3452499188</v>
       </c>
     </row>
     <row r="15">
@@ -15780,28 +15780,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>109.9687922416403</v>
+        <v>122.0617371895607</v>
       </c>
       <c r="AB15" t="n">
-        <v>150.4641530256614</v>
+        <v>167.0102538064761</v>
       </c>
       <c r="AC15" t="n">
-        <v>136.1040654386983</v>
+        <v>151.0710295835957</v>
       </c>
       <c r="AD15" t="n">
-        <v>109968.7922416403</v>
+        <v>122061.7371895607</v>
       </c>
       <c r="AE15" t="n">
-        <v>150464.1530256614</v>
+        <v>167010.2538064761</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.075858452628731e-06</v>
+        <v>9.455939311533767e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.017578125</v>
       </c>
       <c r="AH15" t="n">
-        <v>136104.0654386983</v>
+        <v>151071.0295835957</v>
       </c>
     </row>
     <row r="16">
@@ -15886,28 +15886,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>110.5061603903354</v>
+        <v>122.5991053382558</v>
       </c>
       <c r="AB16" t="n">
-        <v>151.1994038337152</v>
+        <v>167.7455046145299</v>
       </c>
       <c r="AC16" t="n">
-        <v>136.7691449415627</v>
+        <v>151.7361090864601</v>
       </c>
       <c r="AD16" t="n">
-        <v>110506.1603903354</v>
+        <v>122599.1053382558</v>
       </c>
       <c r="AE16" t="n">
-        <v>151199.4038337152</v>
+        <v>167745.50461453</v>
       </c>
       <c r="AF16" t="n">
-        <v>5.064094402000582e-06</v>
+        <v>9.434023777474699e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.024088541666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>136769.1449415627</v>
+        <v>151736.1090864601</v>
       </c>
     </row>
   </sheetData>
@@ -16183,28 +16183,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.8851675253965</v>
+        <v>185.0408831575937</v>
       </c>
       <c r="AB2" t="n">
-        <v>222.8666721945767</v>
+        <v>253.1810997637231</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.5965897957293</v>
+        <v>229.0178509442523</v>
       </c>
       <c r="AD2" t="n">
-        <v>162885.1675253965</v>
+        <v>185040.8831575937</v>
       </c>
       <c r="AE2" t="n">
-        <v>222866.6721945767</v>
+        <v>253181.0997637231</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.771235976079512e-06</v>
+        <v>7.559432538997818e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.39453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>201596.5897957293</v>
+        <v>229017.8509442523</v>
       </c>
     </row>
     <row r="3">
@@ -16289,28 +16289,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.2092978893388</v>
+        <v>135.2796726669644</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.8979558138598</v>
+        <v>185.0956162608085</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.1147123116738</v>
+        <v>167.430350428258</v>
       </c>
       <c r="AD3" t="n">
-        <v>113209.2978893388</v>
+        <v>135279.6726669644</v>
       </c>
       <c r="AE3" t="n">
-        <v>154897.9558138598</v>
+        <v>185095.6162608085</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.801911510254807e-06</v>
+        <v>9.625418921078674e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.450520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>140114.7123116738</v>
+        <v>167430.350428258</v>
       </c>
     </row>
     <row r="4">
@@ -16395,28 +16395,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>102.2947441312909</v>
+        <v>113.4153171289508</v>
       </c>
       <c r="AB4" t="n">
-        <v>139.964181845978</v>
+        <v>155.1798404264242</v>
       </c>
       <c r="AC4" t="n">
-        <v>126.6061967715985</v>
+        <v>140.3696942524427</v>
       </c>
       <c r="AD4" t="n">
-        <v>102294.7441312909</v>
+        <v>113415.3171289508</v>
       </c>
       <c r="AE4" t="n">
-        <v>139964.181845978</v>
+        <v>155179.8404264242</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.217317632889914e-06</v>
+        <v>1.045809939513675e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.175455729166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>126606.1967715985</v>
+        <v>140369.6942524427</v>
       </c>
     </row>
     <row r="5">
@@ -16501,28 +16501,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>98.98833275318873</v>
+        <v>110.1089057508487</v>
       </c>
       <c r="AB5" t="n">
-        <v>135.4402039298858</v>
+        <v>150.6558625103319</v>
       </c>
       <c r="AC5" t="n">
-        <v>122.5139809583738</v>
+        <v>136.277478439218</v>
       </c>
       <c r="AD5" t="n">
-        <v>98988.33275318873</v>
+        <v>110108.9057508487</v>
       </c>
       <c r="AE5" t="n">
-        <v>135440.2039298858</v>
+        <v>150655.8625103319</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.324732696463454e-06</v>
+        <v>1.067341260595324e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.111979166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>122513.9809583738</v>
+        <v>136277.478439218</v>
       </c>
     </row>
     <row r="6">
@@ -16607,28 +16607,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>94.96645830428048</v>
+        <v>106.0870313019404</v>
       </c>
       <c r="AB6" t="n">
-        <v>129.9372978763141</v>
+        <v>145.1529564567603</v>
       </c>
       <c r="AC6" t="n">
-        <v>117.5362645351761</v>
+        <v>131.2997620160203</v>
       </c>
       <c r="AD6" t="n">
-        <v>94966.45830428047</v>
+        <v>106087.0313019404</v>
       </c>
       <c r="AE6" t="n">
-        <v>129937.2978763141</v>
+        <v>145152.9564567603</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.455870707726694e-06</v>
+        <v>1.093627840266569e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.037109375</v>
       </c>
       <c r="AH6" t="n">
-        <v>117536.2645351761</v>
+        <v>131299.7620160203</v>
       </c>
     </row>
     <row r="7">
@@ -16713,28 +16713,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>92.84727294369391</v>
+        <v>103.9678459413539</v>
       </c>
       <c r="AB7" t="n">
-        <v>127.0377349741012</v>
+        <v>142.2533935545474</v>
       </c>
       <c r="AC7" t="n">
-        <v>114.9134318467874</v>
+        <v>128.6769293276316</v>
       </c>
       <c r="AD7" t="n">
-        <v>92847.27294369391</v>
+        <v>103967.8459413539</v>
       </c>
       <c r="AE7" t="n">
-        <v>127037.7349741012</v>
+        <v>142253.3935545474</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.496800428633387e-06</v>
+        <v>1.101832191996258e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.014322916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>114913.4318467874</v>
+        <v>128676.9293276316</v>
       </c>
     </row>
     <row r="8">
@@ -16819,28 +16819,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>92.46360983165192</v>
+        <v>103.5841828293118</v>
       </c>
       <c r="AB8" t="n">
-        <v>126.5127901781837</v>
+        <v>141.7284487586299</v>
       </c>
       <c r="AC8" t="n">
-        <v>114.4385870454275</v>
+        <v>128.2020845262716</v>
       </c>
       <c r="AD8" t="n">
-        <v>92463.60983165192</v>
+        <v>103584.1828293118</v>
       </c>
       <c r="AE8" t="n">
-        <v>126512.7901781837</v>
+        <v>141728.4487586299</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.517977995669688e-06</v>
+        <v>1.106077229707143e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.0029296875</v>
       </c>
       <c r="AH8" t="n">
-        <v>114438.5870454275</v>
+        <v>128202.0845262716</v>
       </c>
     </row>
   </sheetData>
@@ -17116,28 +17116,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.5162532675606</v>
+        <v>139.8067512813044</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.1591662886866</v>
+        <v>191.2897649415582</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.6829230499584</v>
+        <v>173.0333382524612</v>
       </c>
       <c r="AD2" t="n">
-        <v>118516.2532675606</v>
+        <v>139806.7512813044</v>
       </c>
       <c r="AE2" t="n">
-        <v>162159.1662886866</v>
+        <v>191289.7649415582</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.406804123404084e-06</v>
+        <v>9.219309818511567e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.917643229166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>146682.9230499584</v>
+        <v>173033.3382524612</v>
       </c>
     </row>
     <row r="3">
@@ -17222,28 +17222,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.15833862298186</v>
+        <v>105.8036771384048</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.1998369935234</v>
+        <v>144.7652587895076</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.773747287515</v>
+        <v>130.949065669993</v>
       </c>
       <c r="AD3" t="n">
-        <v>95158.33862298186</v>
+        <v>105803.6771384048</v>
       </c>
       <c r="AE3" t="n">
-        <v>130199.8369935234</v>
+        <v>144765.2587895076</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.304476624679437e-06</v>
+        <v>1.109729682974793e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.253580729166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>117773.747287515</v>
+        <v>130949.065669993</v>
       </c>
     </row>
     <row r="4">
@@ -17328,28 +17328,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>88.45003315844707</v>
+        <v>99.09537167387001</v>
       </c>
       <c r="AB4" t="n">
-        <v>121.0212375074015</v>
+        <v>135.5866593033857</v>
       </c>
       <c r="AC4" t="n">
-        <v>109.4711404541004</v>
+        <v>122.6464588365784</v>
       </c>
       <c r="AD4" t="n">
-        <v>88450.03315844707</v>
+        <v>99095.37167387</v>
       </c>
       <c r="AE4" t="n">
-        <v>121021.2375074015</v>
+        <v>135586.6593033857</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.589241589935145e-06</v>
+        <v>1.169304294567061e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.089192708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>109471.1404541004</v>
+        <v>122646.4588365784</v>
       </c>
     </row>
     <row r="5">
@@ -17434,28 +17434,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>84.37108225385464</v>
+        <v>95.01642076927757</v>
       </c>
       <c r="AB5" t="n">
-        <v>115.4402369291273</v>
+        <v>130.0056587251115</v>
       </c>
       <c r="AC5" t="n">
-        <v>104.4227827380314</v>
+        <v>117.5981011205094</v>
       </c>
       <c r="AD5" t="n">
-        <v>84371.08225385463</v>
+        <v>95016.42076927757</v>
       </c>
       <c r="AE5" t="n">
-        <v>115440.2369291273</v>
+        <v>130005.6587251115</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.732419505426843e-06</v>
+        <v>1.199258009892783e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.011067708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>104422.7827380314</v>
+        <v>117598.1011205094</v>
       </c>
     </row>
     <row r="6">
@@ -17540,28 +17540,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>84.73488707459194</v>
+        <v>95.38022559001489</v>
       </c>
       <c r="AB6" t="n">
-        <v>115.9380107347958</v>
+        <v>130.50343253078</v>
       </c>
       <c r="AC6" t="n">
-        <v>104.8730497103169</v>
+        <v>118.0483680927949</v>
       </c>
       <c r="AD6" t="n">
-        <v>84734.88707459194</v>
+        <v>95380.22559001489</v>
       </c>
       <c r="AE6" t="n">
-        <v>115938.0107347958</v>
+        <v>130503.43253078</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.728495369965219e-06</v>
+        <v>1.198437056213485e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.0126953125</v>
       </c>
       <c r="AH6" t="n">
-        <v>104873.0497103169</v>
+        <v>118048.3680927949</v>
       </c>
     </row>
   </sheetData>
@@ -32466,28 +32466,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.4799907248191</v>
+        <v>119.0107611306068</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.7446679402033</v>
+        <v>162.8357737630533</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.8848259473555</v>
+        <v>147.2949560565963</v>
       </c>
       <c r="AD2" t="n">
-        <v>98479.9907248191</v>
+        <v>119010.7611306068</v>
       </c>
       <c r="AE2" t="n">
-        <v>134744.6679402033</v>
+        <v>162835.7737630533</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.928364816993994e-06</v>
+        <v>1.071355429338176e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.623046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>121884.8259473555</v>
+        <v>147294.9560565963</v>
       </c>
     </row>
     <row r="3">
@@ -32572,28 +32572,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.83995519682817</v>
+        <v>92.10542990827307</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.9770372242607</v>
+        <v>126.0227126052341</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.2901059523648</v>
+        <v>113.9952817882118</v>
       </c>
       <c r="AD3" t="n">
-        <v>81839.95519682817</v>
+        <v>92105.42990827307</v>
       </c>
       <c r="AE3" t="n">
-        <v>111977.0372242607</v>
+        <v>126022.7126052341</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.753178304987603e-06</v>
+        <v>1.25065798533124e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.103841145833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>101290.1059523648</v>
+        <v>113995.2817882118</v>
       </c>
     </row>
     <row r="4">
@@ -32678,28 +32678,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.41450655292314</v>
+        <v>89.67998126436804</v>
       </c>
       <c r="AB4" t="n">
-        <v>108.6584313864292</v>
+        <v>122.7041067674026</v>
       </c>
       <c r="AC4" t="n">
-        <v>98.28822319800234</v>
+        <v>110.9933990338493</v>
       </c>
       <c r="AD4" t="n">
-        <v>79414.50655292314</v>
+        <v>89679.98126436803</v>
       </c>
       <c r="AE4" t="n">
-        <v>108658.4313864292</v>
+        <v>122704.1067674026</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.844239118373436e-06</v>
+        <v>1.270453292789905e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.055013020833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>98288.22319800234</v>
+        <v>110993.3990338493</v>
       </c>
     </row>
     <row r="5">
@@ -32784,28 +32784,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>79.72359102106785</v>
+        <v>89.98906573251274</v>
       </c>
       <c r="AB5" t="n">
-        <v>109.0813343915889</v>
+        <v>123.1270097725623</v>
       </c>
       <c r="AC5" t="n">
-        <v>98.67076493389786</v>
+        <v>111.3759407697448</v>
       </c>
       <c r="AD5" t="n">
-        <v>79723.59102106784</v>
+        <v>89989.06573251274</v>
       </c>
       <c r="AE5" t="n">
-        <v>109081.3343915889</v>
+        <v>123127.0097725623</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.845445948430356e-06</v>
+        <v>1.270715640238152e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.055013020833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>98670.76493389785</v>
+        <v>111375.9407697448</v>
       </c>
     </row>
   </sheetData>
@@ -33081,28 +33081,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.55748055995343</v>
+        <v>78.06994740954492</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.80336944467324</v>
+        <v>106.8187462486971</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.85090751875251</v>
+        <v>96.6241150278005</v>
       </c>
       <c r="AD2" t="n">
-        <v>68557.48055995343</v>
+        <v>78069.94740954493</v>
       </c>
       <c r="AE2" t="n">
-        <v>93803.36944467324</v>
+        <v>106818.746248697</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.947178610389064e-06</v>
+        <v>1.414552468169803e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.22265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>84850.9075187525</v>
+        <v>96624.11502780049</v>
       </c>
     </row>
     <row r="3">
@@ -33187,28 +33187,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>68.84302321940966</v>
+        <v>78.35549006900114</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.1940615085941</v>
+        <v>107.2094383126179</v>
       </c>
       <c r="AC3" t="n">
-        <v>85.20431248043263</v>
+        <v>96.97751998948064</v>
       </c>
       <c r="AD3" t="n">
-        <v>68843.02321940966</v>
+        <v>78355.49006900114</v>
       </c>
       <c r="AE3" t="n">
-        <v>94194.06150859411</v>
+        <v>107209.4383126179</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.959542807084259e-06</v>
+        <v>1.417493325691985e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.216145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>85204.31248043264</v>
+        <v>96977.51998948064</v>
       </c>
     </row>
   </sheetData>
@@ -33484,28 +33484,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>202.4635365826425</v>
+        <v>236.9479646315312</v>
       </c>
       <c r="AB2" t="n">
-        <v>277.0195428130845</v>
+        <v>324.2026586151446</v>
       </c>
       <c r="AC2" t="n">
-        <v>250.5811864464553</v>
+        <v>293.2612118983007</v>
       </c>
       <c r="AD2" t="n">
-        <v>202463.5365826425</v>
+        <v>236947.9646315312</v>
       </c>
       <c r="AE2" t="n">
-        <v>277019.5428130845</v>
+        <v>324202.6586151446</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.253864819144523e-06</v>
+        <v>6.314379117471636e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.925130208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>250581.1864464552</v>
+        <v>293261.2118983007</v>
       </c>
     </row>
     <row r="3">
@@ -33590,28 +33590,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>131.2861816433058</v>
+        <v>154.3326942456127</v>
       </c>
       <c r="AB3" t="n">
-        <v>179.6315456618518</v>
+        <v>211.1648009446903</v>
       </c>
       <c r="AC3" t="n">
-        <v>162.4877630583927</v>
+        <v>191.0115287142488</v>
       </c>
       <c r="AD3" t="n">
-        <v>131286.1816433058</v>
+        <v>154332.6942456127</v>
       </c>
       <c r="AE3" t="n">
-        <v>179631.5456618518</v>
+        <v>211164.8009446902</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.382111572759279e-06</v>
+        <v>8.503830166102849e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.6572265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>162487.7630583927</v>
+        <v>191011.5287142489</v>
       </c>
     </row>
     <row r="4">
@@ -33696,28 +33696,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>118.2114452318662</v>
+        <v>141.0873656335808</v>
       </c>
       <c r="AB4" t="n">
-        <v>161.7421144870682</v>
+        <v>193.0419579950599</v>
       </c>
       <c r="AC4" t="n">
-        <v>146.3056740869505</v>
+        <v>174.6183044601556</v>
       </c>
       <c r="AD4" t="n">
-        <v>118211.4452318662</v>
+        <v>141087.3656335808</v>
       </c>
       <c r="AE4" t="n">
-        <v>161742.1144870683</v>
+        <v>193041.9579950599</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.789903298928321e-06</v>
+        <v>9.295181898003158e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.346354166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>146305.6740869505</v>
+        <v>174618.3044601556</v>
       </c>
     </row>
     <row r="5">
@@ -33802,28 +33802,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>112.9363851472905</v>
+        <v>124.459730956995</v>
       </c>
       <c r="AB5" t="n">
-        <v>154.524544560129</v>
+        <v>170.2912946710966</v>
       </c>
       <c r="AC5" t="n">
-        <v>139.776938903913</v>
+        <v>154.0389325130676</v>
       </c>
       <c r="AD5" t="n">
-        <v>112936.3851472905</v>
+        <v>124459.730956995</v>
       </c>
       <c r="AE5" t="n">
-        <v>154524.544560129</v>
+        <v>170291.2946710966</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.967456663401342e-06</v>
+        <v>9.639738085546327e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.225911458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>139776.938903913</v>
+        <v>154038.9325130676</v>
       </c>
     </row>
     <row r="6">
@@ -33908,28 +33908,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>108.4565280279241</v>
+        <v>119.9798738376285</v>
       </c>
       <c r="AB6" t="n">
-        <v>148.3950064120674</v>
+        <v>164.161756523035</v>
       </c>
       <c r="AC6" t="n">
-        <v>134.2323952738396</v>
+        <v>148.4943888829943</v>
       </c>
       <c r="AD6" t="n">
-        <v>108456.5280279241</v>
+        <v>119979.8738376285</v>
       </c>
       <c r="AE6" t="n">
-        <v>148395.0064120674</v>
+        <v>164161.756523035</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.112808169758625e-06</v>
+        <v>9.921804049391983e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.134765625</v>
       </c>
       <c r="AH6" t="n">
-        <v>134232.3952738396</v>
+        <v>148494.3888829942</v>
       </c>
     </row>
     <row r="7">
@@ -34014,28 +34014,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>105.2359560189827</v>
+        <v>116.7593018286872</v>
       </c>
       <c r="AB7" t="n">
-        <v>143.9884777078267</v>
+        <v>159.7552278187943</v>
       </c>
       <c r="AC7" t="n">
-        <v>130.2464194845283</v>
+        <v>144.5084130936829</v>
       </c>
       <c r="AD7" t="n">
-        <v>105235.9560189827</v>
+        <v>116759.3018286872</v>
       </c>
       <c r="AE7" t="n">
-        <v>143988.4777078266</v>
+        <v>159755.2278187943</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.207838118020668e-06</v>
+        <v>1.010621709486018e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.077799479166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>130246.4194845283</v>
+        <v>144508.413093683</v>
       </c>
     </row>
     <row r="8">
@@ -34120,28 +34120,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>102.9246089595161</v>
+        <v>114.4479547692205</v>
       </c>
       <c r="AB8" t="n">
-        <v>140.8259906916303</v>
+        <v>156.5927408025979</v>
       </c>
       <c r="AC8" t="n">
-        <v>127.3857557905783</v>
+        <v>141.647749399733</v>
       </c>
       <c r="AD8" t="n">
-        <v>102924.6089595161</v>
+        <v>114447.9547692205</v>
       </c>
       <c r="AE8" t="n">
-        <v>140825.9906916303</v>
+        <v>156592.7408025979</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.253531274490709e-06</v>
+        <v>1.019488823796613e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.050130208333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>127385.7557905783</v>
+        <v>141647.749399733</v>
       </c>
     </row>
     <row r="9">
@@ -34226,28 +34226,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>100.2107110361521</v>
+        <v>111.7340568458566</v>
       </c>
       <c r="AB9" t="n">
-        <v>137.1127158241592</v>
+        <v>152.8794659351269</v>
       </c>
       <c r="AC9" t="n">
-        <v>124.0268706648435</v>
+        <v>138.2888642739982</v>
       </c>
       <c r="AD9" t="n">
-        <v>100210.7110361521</v>
+        <v>111734.0568458566</v>
       </c>
       <c r="AE9" t="n">
-        <v>137112.7158241592</v>
+        <v>152879.4659351269</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.316950224418954e-06</v>
+        <v>1.031795766934594e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.014322916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>124026.8706648435</v>
+        <v>138288.8642739982</v>
       </c>
     </row>
     <row r="10">
@@ -34332,28 +34332,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>87.20613654460767</v>
+        <v>110.1673082923429</v>
       </c>
       <c r="AB10" t="n">
-        <v>119.3192832835017</v>
+        <v>150.7357714441426</v>
       </c>
       <c r="AC10" t="n">
-        <v>107.9316183526213</v>
+        <v>136.3497609765386</v>
       </c>
       <c r="AD10" t="n">
-        <v>87206.13654460767</v>
+        <v>110167.3082923429</v>
       </c>
       <c r="AE10" t="n">
-        <v>119319.2832835017</v>
+        <v>150735.7714441426</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.354568297202478e-06</v>
+        <v>1.039095848112713e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.9931640625</v>
       </c>
       <c r="AH10" t="n">
-        <v>107931.6183526213</v>
+        <v>136349.7609765386</v>
       </c>
     </row>
     <row r="11">
@@ -34438,28 +34438,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>87.49081902109565</v>
+        <v>110.4519907688309</v>
       </c>
       <c r="AB11" t="n">
-        <v>119.7087984071369</v>
+        <v>151.1252865677777</v>
       </c>
       <c r="AC11" t="n">
-        <v>108.2839586995447</v>
+        <v>136.7021013234621</v>
       </c>
       <c r="AD11" t="n">
-        <v>87490.81902109565</v>
+        <v>110451.9907688309</v>
       </c>
       <c r="AE11" t="n">
-        <v>119708.7984071369</v>
+        <v>151125.2865677777</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.351515521662454e-06</v>
+        <v>1.038503433147997e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>2.994791666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>108283.9586995447</v>
+        <v>136702.1013234621</v>
       </c>
     </row>
   </sheetData>
@@ -34735,28 +34735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>284.1856719264474</v>
+        <v>320.1461640388208</v>
       </c>
       <c r="AB2" t="n">
-        <v>388.8353737167674</v>
+        <v>438.0381054898616</v>
       </c>
       <c r="AC2" t="n">
-        <v>351.725471383113</v>
+        <v>396.2323634922508</v>
       </c>
       <c r="AD2" t="n">
-        <v>284185.6719264474</v>
+        <v>320146.1640388208</v>
       </c>
       <c r="AE2" t="n">
-        <v>388835.3737167674</v>
+        <v>438038.1054898616</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.667599379629681e-06</v>
+        <v>5.005462746674017e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.789388020833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>351725.4713831129</v>
+        <v>396232.3634922508</v>
       </c>
     </row>
     <row r="3">
@@ -34841,28 +34841,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>156.0350819045087</v>
+        <v>180.0087433127573</v>
       </c>
       <c r="AB3" t="n">
-        <v>213.4940828436336</v>
+        <v>246.2959040256796</v>
       </c>
       <c r="AC3" t="n">
-        <v>193.1185072179255</v>
+        <v>222.7897686240126</v>
       </c>
       <c r="AD3" t="n">
-        <v>156035.0819045087</v>
+        <v>180008.7433127573</v>
       </c>
       <c r="AE3" t="n">
-        <v>213494.0828436336</v>
+        <v>246295.9040256796</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.926194611817383e-06</v>
+        <v>7.367081060114931e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.933919270833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>193118.5072179255</v>
+        <v>222789.7686240126</v>
       </c>
     </row>
     <row r="4">
@@ -34947,28 +34947,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>137.5930458425605</v>
+        <v>161.5667072508091</v>
       </c>
       <c r="AB4" t="n">
-        <v>188.2608754984791</v>
+        <v>221.062696680525</v>
       </c>
       <c r="AC4" t="n">
-        <v>170.2935217667555</v>
+        <v>199.9647831728426</v>
       </c>
       <c r="AD4" t="n">
-        <v>137593.0458425605</v>
+        <v>161566.7072508091</v>
       </c>
       <c r="AE4" t="n">
-        <v>188260.8754984791</v>
+        <v>221062.696680525</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.369924635621175e-06</v>
+        <v>8.199692628662749e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.53515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>170293.5217667555</v>
+        <v>199964.7831728426</v>
       </c>
     </row>
     <row r="5">
@@ -35053,28 +35053,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>128.1918911299597</v>
+        <v>151.9949603376162</v>
       </c>
       <c r="AB5" t="n">
-        <v>175.3978008710308</v>
+        <v>207.9662102782299</v>
       </c>
       <c r="AC5" t="n">
-        <v>158.6580809283082</v>
+        <v>188.1182070517442</v>
       </c>
       <c r="AD5" t="n">
-        <v>128191.8911299597</v>
+        <v>151994.9603376162</v>
       </c>
       <c r="AE5" t="n">
-        <v>175397.8008710308</v>
+        <v>207966.2102782298</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.637908721853405e-06</v>
+        <v>8.702535885630037e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.330078125</v>
       </c>
       <c r="AH5" t="n">
-        <v>158658.0809283082</v>
+        <v>188118.2070517442</v>
       </c>
     </row>
     <row r="6">
@@ -35159,28 +35159,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>124.9766709554543</v>
+        <v>136.9635911681296</v>
       </c>
       <c r="AB6" t="n">
-        <v>170.9985947827714</v>
+        <v>187.3996278433428</v>
       </c>
       <c r="AC6" t="n">
-        <v>154.6787288947864</v>
+        <v>169.5144703790565</v>
       </c>
       <c r="AD6" t="n">
-        <v>124976.6709554542</v>
+        <v>136963.5911681296</v>
       </c>
       <c r="AE6" t="n">
-        <v>170998.5947827714</v>
+        <v>187399.6278433428</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.737928278117133e-06</v>
+        <v>8.890211803775757e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.260091145833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>154678.7288947864</v>
+        <v>169514.4703790565</v>
       </c>
     </row>
     <row r="7">
@@ -35265,28 +35265,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>121.4285572637708</v>
+        <v>133.4154774764462</v>
       </c>
       <c r="AB7" t="n">
-        <v>166.143909098084</v>
+        <v>182.5449421586553</v>
       </c>
       <c r="AC7" t="n">
-        <v>150.2873675982498</v>
+        <v>165.1231090825199</v>
       </c>
       <c r="AD7" t="n">
-        <v>121428.5572637708</v>
+        <v>133415.4774764462</v>
       </c>
       <c r="AE7" t="n">
-        <v>166143.909098084</v>
+        <v>182544.9421586553</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.83519587315539e-06</v>
+        <v>9.072723963262822e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.194986979166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>150287.3675982498</v>
+        <v>165123.1090825199</v>
       </c>
     </row>
     <row r="8">
@@ -35371,28 +35371,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>118.6079635945866</v>
+        <v>130.594883807262</v>
       </c>
       <c r="AB8" t="n">
-        <v>162.2846484040977</v>
+        <v>178.685681464669</v>
       </c>
       <c r="AC8" t="n">
-        <v>146.7964293283899</v>
+        <v>161.63217081266</v>
       </c>
       <c r="AD8" t="n">
-        <v>118607.9635945866</v>
+        <v>130594.883807262</v>
       </c>
       <c r="AE8" t="n">
-        <v>162284.6484040977</v>
+        <v>178685.681464669</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.913199739615338e-06</v>
+        <v>9.219089812139279e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.142903645833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>146796.4293283899</v>
+        <v>161632.17081266</v>
       </c>
     </row>
     <row r="9">
@@ -35477,28 +35477,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>117.458608756775</v>
+        <v>129.4455289694503</v>
       </c>
       <c r="AB9" t="n">
-        <v>160.7120504090477</v>
+        <v>177.1130834696191</v>
       </c>
       <c r="AC9" t="n">
-        <v>145.3739178788319</v>
+        <v>160.209659363102</v>
       </c>
       <c r="AD9" t="n">
-        <v>117458.608756775</v>
+        <v>129445.5289694503</v>
       </c>
       <c r="AE9" t="n">
-        <v>160712.0504090477</v>
+        <v>177113.083469619</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.933697105984374e-06</v>
+        <v>9.257550911114113e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.1298828125</v>
       </c>
       <c r="AH9" t="n">
-        <v>145373.9178788319</v>
+        <v>160209.659363102</v>
       </c>
     </row>
     <row r="10">
@@ -35583,28 +35583,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>114.6105864579144</v>
+        <v>126.5975066705898</v>
       </c>
       <c r="AB10" t="n">
-        <v>156.8152606538725</v>
+        <v>173.2162937144438</v>
       </c>
       <c r="AC10" t="n">
-        <v>141.8490322687105</v>
+        <v>156.6847737529806</v>
       </c>
       <c r="AD10" t="n">
-        <v>114610.5864579144</v>
+        <v>126597.5066705898</v>
       </c>
       <c r="AE10" t="n">
-        <v>156815.2606538725</v>
+        <v>173216.2937144438</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.001072708401118e-06</v>
+        <v>9.383973967929545e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.089192708333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>141849.0322687106</v>
+        <v>156684.7737529806</v>
       </c>
     </row>
     <row r="11">
@@ -35689,28 +35689,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>112.5716428781406</v>
+        <v>124.5585630908159</v>
       </c>
       <c r="AB11" t="n">
-        <v>154.0254880961851</v>
+        <v>170.4265211567564</v>
       </c>
       <c r="AC11" t="n">
-        <v>139.3255116884576</v>
+        <v>154.1612531727276</v>
       </c>
       <c r="AD11" t="n">
-        <v>112571.6428781406</v>
+        <v>124558.5630908159</v>
       </c>
       <c r="AE11" t="n">
-        <v>154025.4880961851</v>
+        <v>170426.5211567564</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.044914297579337e-06</v>
+        <v>9.466237985181274e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.0615234375</v>
       </c>
       <c r="AH11" t="n">
-        <v>139325.5116884576</v>
+        <v>154161.2531727277</v>
       </c>
     </row>
     <row r="12">
@@ -35795,28 +35795,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>110.8425500628534</v>
+        <v>122.8294702755288</v>
       </c>
       <c r="AB12" t="n">
-        <v>151.659667024119</v>
+        <v>168.0607000846904</v>
       </c>
       <c r="AC12" t="n">
-        <v>137.1854812590581</v>
+        <v>152.0212227433282</v>
       </c>
       <c r="AD12" t="n">
-        <v>110842.5500628534</v>
+        <v>122829.4702755288</v>
       </c>
       <c r="AE12" t="n">
-        <v>151659.6670241191</v>
+        <v>168060.7000846904</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.072813490692749e-06</v>
+        <v>9.518587814341465e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.045247395833333</v>
       </c>
       <c r="AH12" t="n">
-        <v>137185.4812590581</v>
+        <v>152021.2227433282</v>
       </c>
     </row>
     <row r="13">
@@ -35901,28 +35901,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>109.2258450297472</v>
+        <v>121.2127652424226</v>
       </c>
       <c r="AB13" t="n">
-        <v>149.447619873832</v>
+        <v>165.8486529344034</v>
       </c>
       <c r="AC13" t="n">
-        <v>135.1845487841661</v>
+        <v>150.0202902684362</v>
       </c>
       <c r="AD13" t="n">
-        <v>109225.8450297472</v>
+        <v>121212.7652424226</v>
       </c>
       <c r="AE13" t="n">
-        <v>149447.619873832</v>
+        <v>165848.6529344034</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.100902474235504e-06</v>
+        <v>9.571293764788462e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.02734375</v>
       </c>
       <c r="AH13" t="n">
-        <v>135184.5487841661</v>
+        <v>150020.2902684362</v>
       </c>
     </row>
     <row r="14">
@@ -36007,28 +36007,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>107.7411524816717</v>
+        <v>119.7280726943471</v>
       </c>
       <c r="AB14" t="n">
-        <v>147.4161980295437</v>
+        <v>163.817231090115</v>
       </c>
       <c r="AC14" t="n">
-        <v>133.3470029895775</v>
+        <v>148.1827444738475</v>
       </c>
       <c r="AD14" t="n">
-        <v>107741.1524816717</v>
+        <v>119728.0726943471</v>
       </c>
       <c r="AE14" t="n">
-        <v>147416.1980295437</v>
+        <v>163817.231090115</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.124246697044686e-06</v>
+        <v>9.615096683065357e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.014322916666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>133347.0029895775</v>
+        <v>148182.7444738476</v>
       </c>
     </row>
     <row r="15">
@@ -36113,28 +36113,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>108.285916343142</v>
+        <v>120.2728365558174</v>
       </c>
       <c r="AB15" t="n">
-        <v>148.1615679780924</v>
+        <v>164.5626010386638</v>
       </c>
       <c r="AC15" t="n">
-        <v>134.0212358763702</v>
+        <v>148.8569773606403</v>
       </c>
       <c r="AD15" t="n">
-        <v>108285.916343142</v>
+        <v>120272.8365558174</v>
       </c>
       <c r="AE15" t="n">
-        <v>148161.5679780924</v>
+        <v>164562.6010386638</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.114757175577539e-06</v>
+        <v>9.597290618725157e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.019205729166667</v>
       </c>
       <c r="AH15" t="n">
-        <v>134021.2358763702</v>
+        <v>148856.9773606403</v>
       </c>
     </row>
   </sheetData>
@@ -36410,28 +36410,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.78969720856522</v>
+        <v>81.93949093443956</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.27987792355076</v>
+        <v>112.1132264116673</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.950008872626</v>
+        <v>101.4132974348681</v>
       </c>
       <c r="AD2" t="n">
-        <v>63789.69720856522</v>
+        <v>81939.49093443956</v>
       </c>
       <c r="AE2" t="n">
-        <v>87279.87792355075</v>
+        <v>112113.2264116673</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.788122628576445e-06</v>
+        <v>1.447565543615418e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.429361979166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>78950.008872626</v>
+        <v>101413.2974348681</v>
       </c>
     </row>
   </sheetData>
@@ -36707,28 +36707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.6570143486381</v>
+        <v>161.1996569513031</v>
       </c>
       <c r="AB2" t="n">
-        <v>191.0848882643571</v>
+        <v>220.5604822676247</v>
       </c>
       <c r="AC2" t="n">
-        <v>172.8480147177858</v>
+        <v>199.510499398647</v>
       </c>
       <c r="AD2" t="n">
-        <v>139657.0143486381</v>
+        <v>161199.6569513031</v>
       </c>
       <c r="AE2" t="n">
-        <v>191084.8882643571</v>
+        <v>220560.4822676247</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.186221614327349e-06</v>
+        <v>8.620616922405221e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.064127604166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>172848.0147177858</v>
+        <v>199510.499398647</v>
       </c>
     </row>
     <row r="3">
@@ -36813,28 +36813,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>101.4863810183337</v>
+        <v>122.9436827664271</v>
       </c>
       <c r="AB3" t="n">
-        <v>138.858143772367</v>
+        <v>168.2169706534369</v>
       </c>
       <c r="AC3" t="n">
-        <v>125.6057174193984</v>
+        <v>152.1625790683207</v>
       </c>
       <c r="AD3" t="n">
-        <v>101486.3810183337</v>
+        <v>122943.6827664271</v>
       </c>
       <c r="AE3" t="n">
-        <v>138858.143772367</v>
+        <v>168216.9706534369</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.11418221134676e-06</v>
+        <v>1.053155082963368e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.326822916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>125605.7174193984</v>
+        <v>152162.5790683207</v>
       </c>
     </row>
     <row r="4">
@@ -36919,28 +36919,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>94.60998397920302</v>
+        <v>105.4240204620968</v>
       </c>
       <c r="AB4" t="n">
-        <v>129.4495539782061</v>
+        <v>144.2457957757129</v>
       </c>
       <c r="AC4" t="n">
-        <v>117.0950702301505</v>
+        <v>130.4791794771637</v>
       </c>
       <c r="AD4" t="n">
-        <v>94609.98397920303</v>
+        <v>105424.0204620968</v>
       </c>
       <c r="AE4" t="n">
-        <v>129449.5539782061</v>
+        <v>144245.7957757129</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.388107735030496e-06</v>
+        <v>1.109564112931223e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.157552083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>117095.0702301505</v>
+        <v>130479.1794771638</v>
       </c>
     </row>
     <row r="5">
@@ -37025,28 +37025,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>89.26332570218479</v>
+        <v>100.0773621850786</v>
       </c>
       <c r="AB5" t="n">
-        <v>122.1340202456776</v>
+        <v>136.9302620431845</v>
       </c>
       <c r="AC5" t="n">
-        <v>110.4777207696362</v>
+        <v>123.8618300166494</v>
       </c>
       <c r="AD5" t="n">
-        <v>89263.32570218478</v>
+        <v>100077.3621850786</v>
       </c>
       <c r="AE5" t="n">
-        <v>122134.0202456776</v>
+        <v>136930.2620431845</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.586889248211137e-06</v>
+        <v>1.150498861118502e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.045247395833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>110477.7207696362</v>
+        <v>123861.8300166494</v>
       </c>
     </row>
     <row r="6">
@@ -37131,28 +37131,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>87.40529620934998</v>
+        <v>98.2193326922438</v>
       </c>
       <c r="AB6" t="n">
-        <v>119.5917823231063</v>
+        <v>134.3880241206131</v>
       </c>
       <c r="AC6" t="n">
-        <v>108.1781104663409</v>
+        <v>121.5622197133542</v>
       </c>
       <c r="AD6" t="n">
-        <v>87405.29620934998</v>
+        <v>98219.3326922438</v>
       </c>
       <c r="AE6" t="n">
-        <v>119591.7823231063</v>
+        <v>134388.0241206131</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.657748273414331e-06</v>
+        <v>1.165090742964441e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.006184895833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>108178.1104663409</v>
+        <v>121562.2197133542</v>
       </c>
     </row>
     <row r="7">
@@ -37237,28 +37237,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>87.79007321543115</v>
+        <v>98.60410969832499</v>
       </c>
       <c r="AB7" t="n">
-        <v>120.1182511979898</v>
+        <v>134.9144929954966</v>
       </c>
       <c r="AC7" t="n">
-        <v>108.6543338907094</v>
+        <v>122.0384431377226</v>
       </c>
       <c r="AD7" t="n">
-        <v>87790.07321543116</v>
+        <v>98604.10969832499</v>
       </c>
       <c r="AE7" t="n">
-        <v>120118.2511979898</v>
+        <v>134914.4929954966</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.651164027709609e-06</v>
+        <v>1.163734860138048e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.009440104166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>108654.3338907094</v>
+        <v>122038.4431377226</v>
       </c>
     </row>
   </sheetData>
@@ -37534,28 +37534,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>175.0146587685082</v>
+        <v>197.6226142806266</v>
       </c>
       <c r="AB2" t="n">
-        <v>239.4627772287808</v>
+        <v>270.3959793530504</v>
       </c>
       <c r="AC2" t="n">
-        <v>216.608785858254</v>
+        <v>244.589766586815</v>
       </c>
       <c r="AD2" t="n">
-        <v>175014.6587685081</v>
+        <v>197622.6142806266</v>
       </c>
       <c r="AE2" t="n">
-        <v>239462.7772287808</v>
+        <v>270395.9793530504</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.592525014146337e-06</v>
+        <v>7.117453479209099e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.558919270833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>216608.7858582539</v>
+        <v>244589.766586815</v>
       </c>
     </row>
     <row r="3">
@@ -37640,28 +37640,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.9436131702844</v>
+        <v>141.4662278278312</v>
       </c>
       <c r="AB3" t="n">
-        <v>162.7438989613813</v>
+        <v>193.5603339634533</v>
       </c>
       <c r="AC3" t="n">
-        <v>147.2118496570487</v>
+        <v>175.087207353671</v>
       </c>
       <c r="AD3" t="n">
-        <v>118943.6131702844</v>
+        <v>141466.2278278312</v>
       </c>
       <c r="AE3" t="n">
-        <v>162743.8989613813</v>
+        <v>193560.3339634533</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.660733443414956e-06</v>
+        <v>9.233771047348578e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.513997395833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>147211.8496570487</v>
+        <v>175087.207353671</v>
       </c>
     </row>
     <row r="4">
@@ -37746,28 +37746,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>108.3695324067707</v>
+        <v>119.6309292440951</v>
       </c>
       <c r="AB4" t="n">
-        <v>148.2759751652294</v>
+        <v>163.6843151358138</v>
       </c>
       <c r="AC4" t="n">
-        <v>134.1247242021384</v>
+        <v>148.0625138316761</v>
       </c>
       <c r="AD4" t="n">
-        <v>108369.5324067707</v>
+        <v>119630.9292440951</v>
       </c>
       <c r="AE4" t="n">
-        <v>148275.9751652294</v>
+        <v>163684.3151358138</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.039375900021759e-06</v>
+        <v>9.983931466424394e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.250325520833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>134124.7242021384</v>
+        <v>148062.5138316761</v>
       </c>
     </row>
     <row r="5">
@@ -37852,28 +37852,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>103.7695941326372</v>
+        <v>115.0309909699616</v>
       </c>
       <c r="AB5" t="n">
-        <v>141.9821366836089</v>
+        <v>157.3904766541934</v>
       </c>
       <c r="AC5" t="n">
-        <v>128.431560831744</v>
+        <v>142.3693504612817</v>
       </c>
       <c r="AD5" t="n">
-        <v>103769.5941326372</v>
+        <v>115030.9909699617</v>
       </c>
       <c r="AE5" t="n">
-        <v>141982.1366836089</v>
+        <v>157390.4766541934</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.194636413055055e-06</v>
+        <v>1.029153112803321e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.152669270833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>128431.560831744</v>
+        <v>142369.3504612817</v>
       </c>
     </row>
     <row r="6">
@@ -37958,28 +37958,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>99.62020258248677</v>
+        <v>110.8815994198112</v>
       </c>
       <c r="AB6" t="n">
-        <v>136.3047561064604</v>
+        <v>151.7130960770448</v>
       </c>
       <c r="AC6" t="n">
-        <v>123.296021488623</v>
+        <v>137.2338111181607</v>
       </c>
       <c r="AD6" t="n">
-        <v>99620.20258248677</v>
+        <v>110881.5994198112</v>
       </c>
       <c r="AE6" t="n">
-        <v>136304.7561064604</v>
+        <v>151713.0960770448</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.331583631615209e-06</v>
+        <v>1.056284878159744e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.0712890625</v>
       </c>
       <c r="AH6" t="n">
-        <v>123296.021488623</v>
+        <v>137233.8111181607</v>
       </c>
     </row>
     <row r="7">
@@ -38064,28 +38064,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>97.06459779346561</v>
+        <v>108.32599463079</v>
       </c>
       <c r="AB7" t="n">
-        <v>132.8080648887972</v>
+        <v>148.2164048593817</v>
       </c>
       <c r="AC7" t="n">
-        <v>120.1330495731356</v>
+        <v>134.0708392026733</v>
       </c>
       <c r="AD7" t="n">
-        <v>97064.59779346561</v>
+        <v>108325.9946307901</v>
       </c>
       <c r="AE7" t="n">
-        <v>132808.0648887972</v>
+        <v>148216.4048593817</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.384309820098324e-06</v>
+        <v>1.066730906849505e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.0419921875</v>
       </c>
       <c r="AH7" t="n">
-        <v>120133.0495731356</v>
+        <v>134070.8392026733</v>
       </c>
     </row>
     <row r="8">
@@ -38170,28 +38170,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>94.90628534709811</v>
+        <v>106.1676821844226</v>
       </c>
       <c r="AB8" t="n">
-        <v>129.8549665816537</v>
+        <v>145.2633065522381</v>
       </c>
       <c r="AC8" t="n">
-        <v>117.4617908237254</v>
+        <v>131.3995804532631</v>
       </c>
       <c r="AD8" t="n">
-        <v>94906.28534709811</v>
+        <v>106167.6821844226</v>
       </c>
       <c r="AE8" t="n">
-        <v>129854.9665816537</v>
+        <v>145263.3065522381</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.448104483263009e-06</v>
+        <v>1.079369804157347e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.006184895833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>117461.7908237254</v>
+        <v>131399.5804532631</v>
       </c>
     </row>
     <row r="9">
@@ -38276,28 +38276,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>94.9028178825221</v>
+        <v>106.1642147198465</v>
       </c>
       <c r="AB9" t="n">
-        <v>129.8502222436471</v>
+        <v>145.2585622142315</v>
       </c>
       <c r="AC9" t="n">
-        <v>117.4574992786794</v>
+        <v>131.3952889082171</v>
       </c>
       <c r="AD9" t="n">
-        <v>94902.8178825221</v>
+        <v>106164.2147198465</v>
       </c>
       <c r="AE9" t="n">
-        <v>129850.2222436471</v>
+        <v>145258.5622142315</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.443576470893278e-06</v>
+        <v>1.07847272154086e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.0078125</v>
       </c>
       <c r="AH9" t="n">
-        <v>117457.4992786794</v>
+        <v>131395.2889082171</v>
       </c>
     </row>
   </sheetData>
